--- a/21. SENAVBAH 2021/UKURAN.xlsx
+++ b/21. SENAVBAH 2021/UKURAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\21. SENAVBAH 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11D3CA-FC27-4323-B33A-718A50383422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB63779A-0B32-453E-8589-35345C2D627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2982,12 +2982,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3006,6 +3000,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3062,7 +3062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3106,22 +3106,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3131,16 +3121,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3149,7 +3139,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3157,6 +3146,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3728,98 +3723,96 @@
   <dimension ref="A1:Y409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="2" customWidth="1"/>
-    <col min="10" max="15" width="8.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="2" customWidth="1"/>
-    <col min="17" max="24" width="8.5703125" style="2" customWidth="1"/>
+    <col min="9" max="17" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="25" t="s">
         <v>951</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="32" t="s">
         <v>922</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="32" t="s">
         <v>923</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="32" t="s">
         <v>924</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="32" t="s">
         <v>925</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="32" t="s">
         <v>927</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="32" t="s">
         <v>929</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="32" t="s">
         <v>930</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="32" t="s">
         <v>931</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="32" t="s">
         <v>932</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="32" t="s">
         <v>933</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="32" t="s">
         <v>934</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="32" t="s">
         <v>935</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="32" t="s">
         <v>937</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -3827,16 +3820,16 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>290</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>938</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -3901,16 +3894,16 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -3975,16 +3968,16 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>292</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -4049,16 +4042,16 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>293</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -4123,16 +4116,16 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>449</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -4197,16 +4190,16 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>433</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -4271,16 +4264,16 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>448</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -4345,16 +4338,16 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>447</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -4419,16 +4412,16 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>450</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -4493,16 +4486,16 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>418</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -4567,16 +4560,16 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>425</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -4641,16 +4634,16 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>419</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -4718,16 +4711,16 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>427</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -4792,16 +4785,16 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>437</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -4866,16 +4859,16 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>446</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -4940,16 +4933,16 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>442</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -5014,16 +5007,16 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>444</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -5088,16 +5081,16 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>417</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -5162,16 +5155,16 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>424</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -5236,16 +5229,16 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>439</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -5310,16 +5303,16 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>441</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -5384,16 +5377,16 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>440</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -5458,16 +5451,16 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>443</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -5532,16 +5525,16 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>453</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -5606,16 +5599,16 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>429</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -5680,16 +5673,16 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>438</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>938</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -5754,16 +5747,16 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>456</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -5828,16 +5821,16 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>471</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -5902,16 +5895,16 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>472</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -5976,16 +5969,16 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>460</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -6050,16 +6043,16 @@
       </c>
     </row>
     <row r="32" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>458</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -6124,16 +6117,16 @@
       </c>
     </row>
     <row r="33" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>452</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -6198,16 +6191,16 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>455</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -6272,16 +6265,16 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>459</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -6346,16 +6339,16 @@
       </c>
     </row>
     <row r="36" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>457</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -6420,16 +6413,16 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>420</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -6494,16 +6487,16 @@
       </c>
     </row>
     <row r="38" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>428</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -6568,16 +6561,16 @@
       </c>
     </row>
     <row r="39" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>469</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E39" s="6" t="s">
@@ -6642,16 +6635,16 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>454</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -6716,16 +6709,16 @@
       </c>
     </row>
     <row r="41" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>468</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -6790,16 +6783,16 @@
       </c>
     </row>
     <row r="42" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>467</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -6864,16 +6857,16 @@
       </c>
     </row>
     <row r="43" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>462</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -6938,16 +6931,16 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>466</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -7012,16 +7005,16 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>470</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E45" s="6" t="s">
@@ -7086,16 +7079,16 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>461</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E46" s="6" t="s">
@@ -7160,16 +7153,16 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>481</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E47" s="6" t="s">
@@ -7234,16 +7227,16 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>473</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -7308,16 +7301,16 @@
       </c>
     </row>
     <row r="49" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>463</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -7382,16 +7375,16 @@
       </c>
     </row>
     <row r="50" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>476</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E50" s="6" t="s">
@@ -7456,16 +7449,16 @@
       </c>
     </row>
     <row r="51" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>477</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -7530,16 +7523,16 @@
       </c>
     </row>
     <row r="52" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>475</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -7604,16 +7597,16 @@
       </c>
     </row>
     <row r="53" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>474</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="8" t="s">
         <v>939</v>
       </c>
       <c r="E53" s="6" t="s">
@@ -7678,16 +7671,16 @@
       </c>
     </row>
     <row r="54" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>297</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E54" s="6" t="s">
@@ -7752,16 +7745,16 @@
       </c>
     </row>
     <row r="55" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>318</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E55" s="6" t="s">
@@ -7826,16 +7819,16 @@
       </c>
     </row>
     <row r="56" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>316</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -7900,16 +7893,16 @@
       </c>
     </row>
     <row r="57" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -7974,16 +7967,16 @@
       </c>
     </row>
     <row r="58" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>320</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -8048,16 +8041,16 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>317</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -8122,16 +8115,16 @@
       </c>
     </row>
     <row r="60" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E60" s="6" t="s">
@@ -8196,16 +8189,16 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>308</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -8270,16 +8263,16 @@
       </c>
     </row>
     <row r="62" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>312</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E62" s="6" t="s">
@@ -8344,16 +8337,16 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>314</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -8418,16 +8411,16 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>313</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E64" s="6" t="s">
@@ -8492,16 +8485,16 @@
       </c>
     </row>
     <row r="65" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>310</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E65" s="6" t="s">
@@ -8566,16 +8559,16 @@
       </c>
     </row>
     <row r="66" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>299</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -8640,16 +8633,16 @@
       </c>
     </row>
     <row r="67" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>306</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E67" s="6" t="s">
@@ -8714,16 +8707,16 @@
       </c>
     </row>
     <row r="68" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>305</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -8788,16 +8781,16 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>301</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E69" s="6" t="s">
@@ -8862,16 +8855,16 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>319</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E70" s="6" t="s">
@@ -8936,16 +8929,16 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>294</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -9010,16 +9003,16 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>302</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E72" s="6" t="s">
@@ -9084,16 +9077,16 @@
       </c>
     </row>
     <row r="73" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>296</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -9158,16 +9151,16 @@
       </c>
     </row>
     <row r="74" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="6" t="s">
         <v>311</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="9" t="s">
         <v>940</v>
       </c>
       <c r="E74" s="6" t="s">
@@ -9232,16 +9225,16 @@
       </c>
     </row>
     <row r="75" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>309</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E75" s="6" t="s">
@@ -9306,16 +9299,16 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>295</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -9380,16 +9373,16 @@
       </c>
     </row>
     <row r="77" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>307</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E77" s="6" t="s">
@@ -9454,16 +9447,16 @@
       </c>
     </row>
     <row r="78" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>303</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E78" s="6" t="s">
@@ -9528,16 +9521,16 @@
       </c>
     </row>
     <row r="79" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E79" s="6" t="s">
@@ -9602,16 +9595,16 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>298</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="8" t="s">
         <v>940</v>
       </c>
       <c r="E80" s="6" t="s">
@@ -9676,16 +9669,16 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E81" s="6" t="s">
@@ -9750,16 +9743,16 @@
       </c>
     </row>
     <row r="82" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>350</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -9824,16 +9817,16 @@
       </c>
     </row>
     <row r="83" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>348</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E83" s="6" t="s">
@@ -9898,16 +9891,16 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="11" t="s">
         <v>346</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="10" t="s">
         <v>941</v>
       </c>
       <c r="E84" s="6" t="s">
@@ -9972,16 +9965,16 @@
       </c>
     </row>
     <row r="85" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>333</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E85" s="6" t="s">
@@ -10046,16 +10039,16 @@
       </c>
     </row>
     <row r="86" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>332</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -10120,16 +10113,16 @@
       </c>
     </row>
     <row r="87" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>322</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E87" s="6" t="s">
@@ -10194,16 +10187,16 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>321</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -10268,16 +10261,16 @@
       </c>
     </row>
     <row r="89" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>323</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E89" s="6" t="s">
@@ -10342,16 +10335,16 @@
       </c>
     </row>
     <row r="90" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>337</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E90" s="6" t="s">
@@ -10416,16 +10409,16 @@
       </c>
     </row>
     <row r="91" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E91" s="6" t="s">
@@ -10490,16 +10483,16 @@
       </c>
     </row>
     <row r="92" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>324</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E92" s="6" t="s">
@@ -10564,16 +10557,16 @@
       </c>
     </row>
     <row r="93" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>334</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E93" s="6" t="s">
@@ -10638,16 +10631,16 @@
       </c>
     </row>
     <row r="94" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>345</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E94" s="6" t="s">
@@ -10712,16 +10705,16 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>344</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E95" s="6" t="s">
@@ -10786,16 +10779,16 @@
       </c>
     </row>
     <row r="96" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E96" s="6" t="s">
@@ -10860,16 +10853,16 @@
       </c>
     </row>
     <row r="97" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>326</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E97" s="6" t="s">
@@ -10934,16 +10927,16 @@
       </c>
     </row>
     <row r="98" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>335</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E98" s="6" t="s">
@@ -11008,16 +11001,16 @@
       </c>
     </row>
     <row r="99" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>336</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E99" s="6" t="s">
@@ -11082,16 +11075,16 @@
       </c>
     </row>
     <row r="100" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>341</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E100" s="6" t="s">
@@ -11156,16 +11149,16 @@
       </c>
     </row>
     <row r="101" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>342</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E101" s="6" t="s">
@@ -11230,16 +11223,16 @@
       </c>
     </row>
     <row r="102" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>328</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E102" s="6" t="s">
@@ -11304,16 +11297,16 @@
       </c>
     </row>
     <row r="103" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>331</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E103" s="6" t="s">
@@ -11378,16 +11371,16 @@
       </c>
     </row>
     <row r="104" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E104" s="6" t="s">
@@ -11452,16 +11445,16 @@
       </c>
     </row>
     <row r="105" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E105" s="6" t="s">
@@ -11526,16 +11519,16 @@
       </c>
     </row>
     <row r="106" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="8" t="s">
         <v>941</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -11600,16 +11593,16 @@
       </c>
     </row>
     <row r="107" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>421</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E107" s="6" t="s">
@@ -11674,16 +11667,16 @@
       </c>
     </row>
     <row r="108" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>493</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E108" s="6" t="s">
@@ -11748,16 +11741,16 @@
       </c>
     </row>
     <row r="109" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E109" s="6" t="s">
@@ -11822,16 +11815,16 @@
       </c>
     </row>
     <row r="110" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>489</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E110" s="6" t="s">
@@ -11896,16 +11889,16 @@
       </c>
     </row>
     <row r="111" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>482</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E111" s="6" t="s">
@@ -11970,16 +11963,16 @@
       </c>
     </row>
     <row r="112" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>434</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E112" s="6" t="s">
@@ -12044,16 +12037,16 @@
       </c>
     </row>
     <row r="113" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>492</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E113" s="6" t="s">
@@ -12118,16 +12111,16 @@
       </c>
     </row>
     <row r="114" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>500</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E114" s="6" t="s">
@@ -12192,16 +12185,16 @@
       </c>
     </row>
     <row r="115" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>498</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E115" s="6" t="s">
@@ -12266,16 +12259,16 @@
       </c>
     </row>
     <row r="116" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>487</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E116" s="6" t="s">
@@ -12340,16 +12333,16 @@
       </c>
     </row>
     <row r="117" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>485</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E117" s="6" t="s">
@@ -12414,16 +12407,16 @@
       </c>
     </row>
     <row r="118" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>499</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E118" s="6" t="s">
@@ -12488,16 +12481,16 @@
       </c>
     </row>
     <row r="119" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>490</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E119" s="6" t="s">
@@ -12562,16 +12555,16 @@
       </c>
     </row>
     <row r="120" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>478</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E120" s="6" t="s">
@@ -12636,16 +12629,16 @@
       </c>
     </row>
     <row r="121" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>486</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E121" s="6" t="s">
@@ -12713,16 +12706,16 @@
       </c>
     </row>
     <row r="122" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>422</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E122" s="6" t="s">
@@ -12787,16 +12780,16 @@
       </c>
     </row>
     <row r="123" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>491</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E123" s="6" t="s">
@@ -12861,16 +12854,16 @@
       </c>
     </row>
     <row r="124" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>484</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E124" s="6" t="s">
@@ -12935,16 +12928,16 @@
       </c>
     </row>
     <row r="125" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>483</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E125" s="6" t="s">
@@ -13009,16 +13002,16 @@
       </c>
     </row>
     <row r="126" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>502</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E126" s="6" t="s">
@@ -13083,16 +13076,16 @@
       </c>
     </row>
     <row r="127" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>465</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E127" s="6" t="s">
@@ -13157,16 +13150,16 @@
       </c>
     </row>
     <row r="128" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>495</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E128" s="6" t="s">
@@ -13231,16 +13224,16 @@
       </c>
     </row>
     <row r="129" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>432</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E129" s="6" t="s">
@@ -13305,16 +13298,16 @@
       </c>
     </row>
     <row r="130" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>430</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E130" s="6" t="s">
@@ -13379,16 +13372,16 @@
       </c>
     </row>
     <row r="131" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>497</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E131" s="6" t="s">
@@ -13453,16 +13446,16 @@
       </c>
     </row>
     <row r="132" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>431</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E132" s="6" t="s">
@@ -13527,16 +13520,16 @@
       </c>
     </row>
     <row r="133" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>496</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="8" t="s">
         <v>942</v>
       </c>
       <c r="E133" s="6" t="s">
@@ -13601,16 +13594,16 @@
       </c>
     </row>
     <row r="134" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>514</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E134" s="6" t="s">
@@ -13675,16 +13668,16 @@
       </c>
     </row>
     <row r="135" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>512</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E135" s="6" t="s">
@@ -13749,16 +13742,16 @@
       </c>
     </row>
     <row r="136" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>513</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E136" s="6" t="s">
@@ -13823,16 +13816,16 @@
       </c>
     </row>
     <row r="137" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>509</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E137" s="6" t="s">
@@ -13897,16 +13890,16 @@
       </c>
     </row>
     <row r="138" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>510</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E138" s="6" t="s">
@@ -13971,16 +13964,16 @@
       </c>
     </row>
     <row r="139" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>436</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E139" s="6" t="s">
@@ -14045,16 +14038,16 @@
       </c>
     </row>
     <row r="140" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>451</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E140" s="6" t="s">
@@ -14119,16 +14112,16 @@
       </c>
     </row>
     <row r="141" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>524</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E141" s="6" t="s">
@@ -14193,16 +14186,16 @@
       </c>
     </row>
     <row r="142" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>503</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E142" s="6" t="s">
@@ -14267,16 +14260,16 @@
       </c>
     </row>
     <row r="143" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>517</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E143" s="6" t="s">
@@ -14341,16 +14334,16 @@
       </c>
     </row>
     <row r="144" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>518</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E144" s="6" t="s">
@@ -14415,16 +14408,16 @@
       </c>
     </row>
     <row r="145" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>519</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E145" s="6" t="s">
@@ -14489,16 +14482,16 @@
       </c>
     </row>
     <row r="146" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>525</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E146" s="6" t="s">
@@ -14563,16 +14556,16 @@
       </c>
     </row>
     <row r="147" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>505</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E147" s="6" t="s">
@@ -14637,16 +14630,16 @@
       </c>
     </row>
     <row r="148" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>516</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E148" s="6" t="s">
@@ -14711,16 +14704,16 @@
       </c>
     </row>
     <row r="149" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>508</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E149" s="6" t="s">
@@ -14785,16 +14778,16 @@
       </c>
     </row>
     <row r="150" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>520</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E150" s="6" t="s">
@@ -14859,16 +14852,16 @@
       </c>
     </row>
     <row r="151" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>527</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E151" s="6" t="s">
@@ -14933,16 +14926,16 @@
       </c>
     </row>
     <row r="152" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="7" t="s">
         <v>523</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E152" s="6" t="s">
@@ -15007,16 +15000,16 @@
       </c>
     </row>
     <row r="153" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>515</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E153" s="6" t="s">
@@ -15081,16 +15074,16 @@
       </c>
     </row>
     <row r="154" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>464</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E154" s="6" t="s">
@@ -15155,16 +15148,16 @@
       </c>
     </row>
     <row r="155" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>526</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E155" s="6" t="s">
@@ -15229,16 +15222,16 @@
       </c>
     </row>
     <row r="156" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>521</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E156" s="6" t="s">
@@ -15303,16 +15296,16 @@
       </c>
     </row>
     <row r="157" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>506</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E157" s="6" t="s">
@@ -15377,16 +15370,16 @@
       </c>
     </row>
     <row r="158" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>522</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E158" s="6" t="s">
@@ -15451,16 +15444,16 @@
       </c>
     </row>
     <row r="159" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>507</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E159" s="6" t="s">
@@ -15525,16 +15518,16 @@
       </c>
     </row>
     <row r="160" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>504</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="8" t="s">
         <v>943</v>
       </c>
       <c r="E160" s="6" t="s">
@@ -15599,16 +15592,16 @@
       </c>
     </row>
     <row r="161" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="6" t="s">
         <v>354</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E161" s="6" t="s">
@@ -15673,16 +15666,16 @@
       </c>
     </row>
     <row r="162" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="6" t="s">
         <v>366</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E162" s="6" t="s">
@@ -15747,16 +15740,16 @@
       </c>
     </row>
     <row r="163" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="6" t="s">
         <v>368</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E163" s="6" t="s">
@@ -15821,16 +15814,16 @@
       </c>
     </row>
     <row r="164" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="6" t="s">
         <v>364</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E164" s="6" t="s">
@@ -15895,16 +15888,16 @@
       </c>
     </row>
     <row r="165" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="6" t="s">
         <v>374</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E165" s="6" t="s">
@@ -15969,16 +15962,16 @@
       </c>
     </row>
     <row r="166" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="6" t="s">
         <v>359</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E166" s="6" t="s">
@@ -16043,16 +16036,16 @@
       </c>
     </row>
     <row r="167" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="6" t="s">
         <v>351</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E167" s="6" t="s">
@@ -16117,16 +16110,16 @@
       </c>
     </row>
     <row r="168" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="6" t="s">
         <v>361</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E168" s="6" t="s">
@@ -16191,16 +16184,16 @@
       </c>
     </row>
     <row r="169" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="6" t="s">
         <v>371</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E169" s="6" t="s">
@@ -16265,16 +16258,16 @@
       </c>
     </row>
     <row r="170" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="6" t="s">
         <v>355</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E170" s="6" t="s">
@@ -16339,16 +16332,16 @@
       </c>
     </row>
     <row r="171" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="6" t="s">
         <v>362</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E171" s="6" t="s">
@@ -16413,16 +16406,16 @@
       </c>
     </row>
     <row r="172" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="6" t="s">
         <v>360</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E172" s="6" t="s">
@@ -16437,52 +16430,52 @@
       <c r="H172" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I172" s="35">
+      <c r="I172" s="30">
         <v>46</v>
       </c>
-      <c r="J172" s="35">
+      <c r="J172" s="30">
         <v>54</v>
       </c>
-      <c r="K172" s="35">
+      <c r="K172" s="30">
         <v>18</v>
       </c>
-      <c r="L172" s="35">
+      <c r="L172" s="30">
         <v>17</v>
       </c>
-      <c r="M172" s="35">
+      <c r="M172" s="30">
         <v>29</v>
       </c>
-      <c r="N172" s="35">
-        <v>27</v>
-      </c>
-      <c r="O172" s="35">
+      <c r="N172" s="30">
+        <v>27</v>
+      </c>
+      <c r="O172" s="30">
         <v>29</v>
       </c>
-      <c r="P172" s="35">
+      <c r="P172" s="30">
         <v>67</v>
       </c>
-      <c r="Q172" s="35">
+      <c r="Q172" s="30">
         <v>40</v>
       </c>
-      <c r="R172" s="35">
+      <c r="R172" s="30">
         <v>91</v>
       </c>
-      <c r="S172" s="35">
+      <c r="S172" s="30">
         <v>106</v>
       </c>
-      <c r="T172" s="35">
+      <c r="T172" s="30">
         <v>66</v>
       </c>
-      <c r="U172" s="35">
+      <c r="U172" s="30">
         <v>35</v>
       </c>
-      <c r="V172" s="35">
-        <v>27</v>
-      </c>
-      <c r="W172" s="35">
+      <c r="V172" s="30">
+        <v>27</v>
+      </c>
+      <c r="W172" s="30">
         <v>22</v>
       </c>
-      <c r="X172" s="35">
+      <c r="X172" s="30">
         <v>96</v>
       </c>
       <c r="Y172" s="2">
@@ -16490,16 +16483,16 @@
       </c>
     </row>
     <row r="173" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="6" t="s">
         <v>373</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="C173" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E173" s="6" t="s">
@@ -16564,16 +16557,16 @@
       </c>
     </row>
     <row r="174" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="6" t="s">
         <v>372</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E174" s="6" t="s">
@@ -16638,16 +16631,16 @@
       </c>
     </row>
     <row r="175" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="9" t="s">
+      <c r="A175" s="6" t="s">
         <v>352</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="C175" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E175" s="6" t="s">
@@ -16712,16 +16705,16 @@
       </c>
     </row>
     <row r="176" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C176" s="20" t="s">
+      <c r="C176" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E176" s="6" t="s">
@@ -16786,16 +16779,16 @@
       </c>
     </row>
     <row r="177" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="6" t="s">
         <v>370</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C177" s="20" t="s">
+      <c r="C177" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E177" s="6" t="s">
@@ -16860,16 +16853,16 @@
       </c>
     </row>
     <row r="178" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="6" t="s">
         <v>356</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C178" s="20" t="s">
+      <c r="C178" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E178" s="6" t="s">
@@ -16934,16 +16927,16 @@
       </c>
     </row>
     <row r="179" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="6" t="s">
         <v>327</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C179" s="20" t="s">
+      <c r="C179" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E179" s="6" t="s">
@@ -17008,16 +17001,16 @@
       </c>
     </row>
     <row r="180" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="6" t="s">
         <v>357</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="9" t="s">
         <v>770</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E180" s="6" t="s">
@@ -17082,16 +17075,16 @@
       </c>
     </row>
     <row r="181" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="6" t="s">
         <v>353</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E181" s="6" t="s">
@@ -17156,16 +17149,16 @@
       </c>
     </row>
     <row r="182" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="6" t="s">
         <v>363</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E182" s="6" t="s">
@@ -17230,16 +17223,16 @@
       </c>
     </row>
     <row r="183" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="6" t="s">
         <v>358</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="9" t="s">
         <v>944</v>
       </c>
       <c r="E183" s="6" t="s">
@@ -17304,16 +17297,16 @@
       </c>
     </row>
     <row r="184" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="6" t="s">
         <v>415</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C184" s="20" t="s">
+      <c r="C184" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E184" s="6" t="s">
@@ -17378,16 +17371,16 @@
       </c>
     </row>
     <row r="185" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C185" s="20" t="s">
+      <c r="C185" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E185" s="6" t="s">
@@ -17452,16 +17445,16 @@
       </c>
     </row>
     <row r="186" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="6" t="s">
         <v>397</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="C186" s="20" t="s">
+      <c r="C186" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E186" s="6" t="s">
@@ -17526,16 +17519,16 @@
       </c>
     </row>
     <row r="187" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="6" t="s">
         <v>407</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C187" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="C187" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E187" s="6" t="s">
@@ -17600,16 +17593,16 @@
       </c>
     </row>
     <row r="188" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="6" t="s">
         <v>411</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C188" s="20" t="s">
+      <c r="C188" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E188" s="6" t="s">
@@ -17674,16 +17667,16 @@
       </c>
     </row>
     <row r="189" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="6" t="s">
         <v>405</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C189" s="20" t="s">
+      <c r="C189" s="9" t="s">
         <v>777</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E189" s="6" t="s">
@@ -17748,16 +17741,16 @@
       </c>
     </row>
     <row r="190" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="6" t="s">
         <v>412</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C190" s="20" t="s">
+      <c r="C190" s="9" t="s">
         <v>778</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E190" s="6" t="s">
@@ -17822,16 +17815,16 @@
       </c>
     </row>
     <row r="191" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="6" t="s">
         <v>375</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C191" s="20" t="s">
+      <c r="C191" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E191" s="6" t="s">
@@ -17896,16 +17889,16 @@
       </c>
     </row>
     <row r="192" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="6" t="s">
         <v>399</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C192" s="20" t="s">
+      <c r="C192" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E192" s="6" t="s">
@@ -17970,16 +17963,16 @@
       </c>
     </row>
     <row r="193" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="6" t="s">
         <v>408</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C193" s="20" t="s">
+      <c r="C193" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E193" s="6" t="s">
@@ -18044,16 +18037,16 @@
       </c>
     </row>
     <row r="194" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="9" t="s">
+      <c r="A194" s="6" t="s">
         <v>382</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C194" s="20" t="s">
+      <c r="C194" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E194" s="6" t="s">
@@ -18118,16 +18111,16 @@
       </c>
     </row>
     <row r="195" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C195" s="20" t="s">
+      <c r="C195" s="9" t="s">
         <v>783</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E195" s="6" t="s">
@@ -18192,16 +18185,16 @@
       </c>
     </row>
     <row r="196" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="9" t="s">
+      <c r="A196" s="6" t="s">
         <v>414</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C196" s="20" t="s">
+      <c r="C196" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E196" s="6" t="s">
@@ -18266,16 +18259,16 @@
       </c>
     </row>
     <row r="197" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="6" t="s">
         <v>413</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C197" s="20" t="s">
+      <c r="C197" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E197" s="6" t="s">
@@ -18340,16 +18333,16 @@
       </c>
     </row>
     <row r="198" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="6" t="s">
         <v>409</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C198" s="20" t="s">
+      <c r="C198" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E198" s="6" t="s">
@@ -18414,16 +18407,16 @@
       </c>
     </row>
     <row r="199" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C199" s="20" t="s">
+      <c r="C199" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E199" s="6" t="s">
@@ -18488,16 +18481,16 @@
       </c>
     </row>
     <row r="200" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="6" t="s">
         <v>406</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E200" s="6" t="s">
@@ -18562,16 +18555,16 @@
       </c>
     </row>
     <row r="201" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="6" t="s">
         <v>410</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E201" s="6" t="s">
@@ -18636,16 +18629,16 @@
       </c>
     </row>
     <row r="202" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="9" t="s">
+      <c r="A202" s="6" t="s">
         <v>398</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C202" s="20" t="s">
+      <c r="C202" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E202" s="6" t="s">
@@ -18710,16 +18703,16 @@
       </c>
     </row>
     <row r="203" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C203" s="20" t="s">
+      <c r="C203" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E203" s="6" t="s">
@@ -18784,16 +18777,16 @@
       </c>
     </row>
     <row r="204" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="9" t="s">
+      <c r="A204" s="6" t="s">
         <v>416</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C204" s="20" t="s">
+      <c r="C204" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E204" s="6" t="s">
@@ -18858,16 +18851,16 @@
       </c>
     </row>
     <row r="205" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="6" t="s">
         <v>379</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C205" s="20" t="s">
+      <c r="C205" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E205" s="6" t="s">
@@ -18932,16 +18925,16 @@
       </c>
     </row>
     <row r="206" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="6" t="s">
         <v>401</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C206" s="20" t="s">
+      <c r="C206" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="9" t="s">
         <v>945</v>
       </c>
       <c r="E206" s="6" t="s">
@@ -19006,16 +18999,16 @@
       </c>
     </row>
     <row r="207" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="6" t="s">
         <v>395</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C207" s="20" t="s">
+      <c r="C207" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E207" s="6" t="s">
@@ -19080,16 +19073,16 @@
       </c>
     </row>
     <row r="208" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="6" t="s">
         <v>396</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C208" s="20" t="s">
+      <c r="C208" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E208" s="6" t="s">
@@ -19154,16 +19147,16 @@
       </c>
     </row>
     <row r="209" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="6" t="s">
         <v>391</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C209" s="20" t="s">
+      <c r="C209" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E209" s="6" t="s">
@@ -19227,831 +19220,831 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="31" t="s">
+    <row r="210" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="29" t="s">
         <v>952</v>
       </c>
-      <c r="B210" s="31" t="s">
+      <c r="B210" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C210" s="32" t="s">
+      <c r="C210" s="27" t="s">
         <v>798</v>
       </c>
-      <c r="D210" s="33" t="s">
+      <c r="D210" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E210" s="34" t="s">
+      <c r="E210" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F210" s="34" t="s">
+      <c r="F210" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G210" s="34">
+      <c r="G210" s="29">
         <v>131205</v>
       </c>
-      <c r="H210" s="34" t="s">
+      <c r="H210" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I210" s="35">
+      <c r="I210" s="30">
         <v>44</v>
       </c>
-      <c r="J210" s="35">
+      <c r="J210" s="30">
         <v>57</v>
       </c>
-      <c r="K210" s="35">
+      <c r="K210" s="30">
         <v>17</v>
       </c>
-      <c r="L210" s="35">
+      <c r="L210" s="30">
         <v>16</v>
       </c>
-      <c r="M210" s="35">
+      <c r="M210" s="30">
         <v>28</v>
       </c>
-      <c r="N210" s="35">
-        <v>26</v>
-      </c>
-      <c r="O210" s="35">
+      <c r="N210" s="30">
+        <v>26</v>
+      </c>
+      <c r="O210" s="30">
         <v>28</v>
       </c>
-      <c r="P210" s="35">
+      <c r="P210" s="30">
         <v>68</v>
       </c>
-      <c r="Q210" s="35">
+      <c r="Q210" s="30">
         <v>40</v>
       </c>
-      <c r="R210" s="35">
+      <c r="R210" s="30">
         <v>85</v>
       </c>
-      <c r="S210" s="35">
+      <c r="S210" s="30">
         <v>105</v>
       </c>
-      <c r="T210" s="35">
+      <c r="T210" s="30">
         <v>71</v>
       </c>
-      <c r="U210" s="35">
+      <c r="U210" s="30">
         <v>33</v>
       </c>
-      <c r="V210" s="35">
-        <v>26</v>
-      </c>
-      <c r="W210" s="35">
+      <c r="V210" s="30">
+        <v>26</v>
+      </c>
+      <c r="W210" s="30">
         <v>22</v>
       </c>
-      <c r="X210" s="35">
+      <c r="X210" s="30">
         <v>98</v>
       </c>
     </row>
-    <row r="211" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="31" t="s">
+    <row r="211" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="B211" s="31" t="s">
+      <c r="B211" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="C211" s="32" t="s">
+      <c r="C211" s="27" t="s">
         <v>799</v>
       </c>
-      <c r="D211" s="33" t="s">
+      <c r="D211" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E211" s="34" t="s">
+      <c r="E211" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F211" s="34" t="s">
+      <c r="F211" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G211" s="34">
+      <c r="G211" s="29">
         <v>131206</v>
       </c>
-      <c r="H211" s="34" t="s">
+      <c r="H211" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I211" s="35">
+      <c r="I211" s="30">
         <v>46</v>
       </c>
-      <c r="J211" s="35">
+      <c r="J211" s="30">
         <v>59</v>
       </c>
-      <c r="K211" s="35">
+      <c r="K211" s="30">
         <v>18</v>
       </c>
-      <c r="L211" s="35">
+      <c r="L211" s="30">
         <v>17</v>
       </c>
-      <c r="M211" s="35">
+      <c r="M211" s="30">
         <v>28</v>
       </c>
-      <c r="N211" s="35">
-        <v>26</v>
-      </c>
-      <c r="O211" s="35">
+      <c r="N211" s="30">
+        <v>26</v>
+      </c>
+      <c r="O211" s="30">
         <v>28</v>
       </c>
-      <c r="P211" s="35">
+      <c r="P211" s="30">
         <v>71</v>
       </c>
-      <c r="Q211" s="35">
+      <c r="Q211" s="30">
         <v>40</v>
       </c>
-      <c r="R211" s="35">
+      <c r="R211" s="30">
         <v>82</v>
       </c>
-      <c r="S211" s="35">
+      <c r="S211" s="30">
         <v>104</v>
       </c>
-      <c r="T211" s="35">
+      <c r="T211" s="30">
         <v>74</v>
       </c>
-      <c r="U211" s="35">
+      <c r="U211" s="30">
         <v>34</v>
       </c>
-      <c r="V211" s="35">
-        <v>27</v>
-      </c>
-      <c r="W211" s="35">
+      <c r="V211" s="30">
+        <v>27</v>
+      </c>
+      <c r="W211" s="30">
         <v>22</v>
       </c>
-      <c r="X211" s="35">
+      <c r="X211" s="30">
         <v>107</v>
       </c>
     </row>
-    <row r="212" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="31" t="s">
+    <row r="212" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="B212" s="31" t="s">
+      <c r="B212" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C212" s="32" t="s">
+      <c r="C212" s="27" t="s">
         <v>800</v>
       </c>
-      <c r="D212" s="33" t="s">
+      <c r="D212" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E212" s="34" t="s">
+      <c r="E212" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F212" s="34" t="s">
+      <c r="F212" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G212" s="34">
+      <c r="G212" s="29">
         <v>131207</v>
       </c>
-      <c r="H212" s="34" t="s">
+      <c r="H212" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I212" s="35">
+      <c r="I212" s="30">
         <v>46</v>
       </c>
-      <c r="J212" s="35">
+      <c r="J212" s="30">
         <v>56</v>
       </c>
-      <c r="K212" s="35">
+      <c r="K212" s="30">
         <v>18</v>
       </c>
-      <c r="L212" s="35">
+      <c r="L212" s="30">
         <v>16</v>
       </c>
-      <c r="M212" s="35">
+      <c r="M212" s="30">
         <v>28</v>
       </c>
-      <c r="N212" s="35">
-        <v>27</v>
-      </c>
-      <c r="O212" s="35">
+      <c r="N212" s="30">
+        <v>27</v>
+      </c>
+      <c r="O212" s="30">
         <v>28</v>
       </c>
-      <c r="P212" s="35">
+      <c r="P212" s="30">
         <v>68</v>
       </c>
-      <c r="Q212" s="35">
+      <c r="Q212" s="30">
         <v>42</v>
       </c>
-      <c r="R212" s="35">
+      <c r="R212" s="30">
         <v>88</v>
       </c>
-      <c r="S212" s="35">
+      <c r="S212" s="30">
         <v>108</v>
       </c>
-      <c r="T212" s="35">
+      <c r="T212" s="30">
         <v>71</v>
       </c>
-      <c r="U212" s="35">
+      <c r="U212" s="30">
         <v>31</v>
       </c>
-      <c r="V212" s="35">
-        <v>27</v>
-      </c>
-      <c r="W212" s="35">
+      <c r="V212" s="30">
+        <v>27</v>
+      </c>
+      <c r="W212" s="30">
         <v>22</v>
       </c>
-      <c r="X212" s="35">
+      <c r="X212" s="30">
         <v>100</v>
       </c>
     </row>
-    <row r="213" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="31" t="s">
+    <row r="213" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="B213" s="31" t="s">
+      <c r="B213" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C213" s="32" t="s">
+      <c r="C213" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="D213" s="33" t="s">
+      <c r="D213" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E213" s="34" t="s">
+      <c r="E213" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F213" s="34" t="s">
+      <c r="F213" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G213" s="34">
+      <c r="G213" s="29">
         <v>131208</v>
       </c>
-      <c r="H213" s="34" t="s">
+      <c r="H213" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I213" s="35">
+      <c r="I213" s="30">
         <v>45</v>
       </c>
-      <c r="J213" s="35">
+      <c r="J213" s="30">
         <v>58</v>
       </c>
-      <c r="K213" s="35">
+      <c r="K213" s="30">
         <v>18</v>
       </c>
-      <c r="L213" s="35">
+      <c r="L213" s="30">
         <v>17</v>
       </c>
-      <c r="M213" s="35">
+      <c r="M213" s="30">
         <v>29</v>
       </c>
-      <c r="N213" s="35">
-        <v>26</v>
-      </c>
-      <c r="O213" s="35">
+      <c r="N213" s="30">
+        <v>26</v>
+      </c>
+      <c r="O213" s="30">
         <v>29</v>
       </c>
-      <c r="P213" s="35">
+      <c r="P213" s="30">
         <v>69</v>
       </c>
-      <c r="Q213" s="35">
+      <c r="Q213" s="30">
         <v>42</v>
       </c>
-      <c r="R213" s="35">
+      <c r="R213" s="30">
         <v>90</v>
       </c>
-      <c r="S213" s="35">
+      <c r="S213" s="30">
         <v>106</v>
       </c>
-      <c r="T213" s="35">
+      <c r="T213" s="30">
         <v>74</v>
       </c>
-      <c r="U213" s="35">
+      <c r="U213" s="30">
         <v>34</v>
       </c>
-      <c r="V213" s="35">
-        <v>27</v>
-      </c>
-      <c r="W213" s="35">
+      <c r="V213" s="30">
+        <v>27</v>
+      </c>
+      <c r="W213" s="30">
         <v>22</v>
       </c>
-      <c r="X213" s="35">
+      <c r="X213" s="30">
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="31" t="s">
+    <row r="214" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="B214" s="31" t="s">
+      <c r="B214" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C214" s="32" t="s">
+      <c r="C214" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="D214" s="33" t="s">
+      <c r="D214" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E214" s="34" t="s">
+      <c r="E214" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F214" s="34" t="s">
+      <c r="F214" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G214" s="34">
+      <c r="G214" s="29">
         <v>131209</v>
       </c>
-      <c r="H214" s="34" t="s">
+      <c r="H214" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I214" s="35">
+      <c r="I214" s="30">
         <v>44</v>
       </c>
-      <c r="J214" s="35">
+      <c r="J214" s="30">
         <v>58</v>
       </c>
-      <c r="K214" s="35">
+      <c r="K214" s="30">
         <v>17</v>
       </c>
-      <c r="L214" s="35">
+      <c r="L214" s="30">
         <v>16</v>
       </c>
-      <c r="M214" s="35">
-        <v>27</v>
-      </c>
-      <c r="N214" s="35">
+      <c r="M214" s="30">
+        <v>27</v>
+      </c>
+      <c r="N214" s="30">
         <v>25</v>
       </c>
-      <c r="O214" s="35">
-        <v>27</v>
-      </c>
-      <c r="P214" s="35">
+      <c r="O214" s="30">
+        <v>27</v>
+      </c>
+      <c r="P214" s="30">
         <v>64</v>
       </c>
-      <c r="Q214" s="35">
+      <c r="Q214" s="30">
         <v>40</v>
       </c>
-      <c r="R214" s="35">
+      <c r="R214" s="30">
         <v>81</v>
       </c>
-      <c r="S214" s="35">
+      <c r="S214" s="30">
         <v>105</v>
       </c>
-      <c r="T214" s="35">
+      <c r="T214" s="30">
         <v>72</v>
       </c>
-      <c r="U214" s="35">
+      <c r="U214" s="30">
         <v>33</v>
       </c>
-      <c r="V214" s="35">
-        <v>26</v>
-      </c>
-      <c r="W214" s="35">
+      <c r="V214" s="30">
+        <v>26</v>
+      </c>
+      <c r="W214" s="30">
         <v>22</v>
       </c>
-      <c r="X214" s="35">
+      <c r="X214" s="30">
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="31" t="s">
+    <row r="215" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="B215" s="31" t="s">
+      <c r="B215" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C215" s="32" t="s">
+      <c r="C215" s="27" t="s">
         <v>803</v>
       </c>
-      <c r="D215" s="33" t="s">
+      <c r="D215" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E215" s="34" t="s">
+      <c r="E215" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F215" s="34" t="s">
+      <c r="F215" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G215" s="34">
+      <c r="G215" s="29">
         <v>131210</v>
       </c>
-      <c r="H215" s="34" t="s">
+      <c r="H215" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I215" s="35">
+      <c r="I215" s="30">
         <v>46</v>
       </c>
-      <c r="J215" s="35">
+      <c r="J215" s="30">
         <v>58</v>
       </c>
-      <c r="K215" s="35">
+      <c r="K215" s="30">
         <v>19</v>
       </c>
-      <c r="L215" s="35">
+      <c r="L215" s="30">
         <v>17</v>
       </c>
-      <c r="M215" s="35">
+      <c r="M215" s="30">
         <v>29</v>
       </c>
-      <c r="N215" s="35">
-        <v>26</v>
-      </c>
-      <c r="O215" s="35">
+      <c r="N215" s="30">
+        <v>26</v>
+      </c>
+      <c r="O215" s="30">
         <v>29</v>
       </c>
-      <c r="P215" s="35">
+      <c r="P215" s="30">
         <v>68</v>
       </c>
-      <c r="Q215" s="35">
+      <c r="Q215" s="30">
         <v>41</v>
       </c>
-      <c r="R215" s="35">
+      <c r="R215" s="30">
         <v>90</v>
       </c>
-      <c r="S215" s="35">
+      <c r="S215" s="30">
         <v>105</v>
       </c>
-      <c r="T215" s="35">
+      <c r="T215" s="30">
         <v>70</v>
       </c>
-      <c r="U215" s="35">
+      <c r="U215" s="30">
         <v>34</v>
       </c>
-      <c r="V215" s="35">
-        <v>27</v>
-      </c>
-      <c r="W215" s="35">
+      <c r="V215" s="30">
+        <v>27</v>
+      </c>
+      <c r="W215" s="30">
         <v>22</v>
       </c>
-      <c r="X215" s="35">
+      <c r="X215" s="30">
         <v>98</v>
       </c>
     </row>
-    <row r="216" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="31" t="s">
+    <row r="216" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="B216" s="31" t="s">
+      <c r="B216" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C216" s="32" t="s">
+      <c r="C216" s="27" t="s">
         <v>804</v>
       </c>
-      <c r="D216" s="33" t="s">
+      <c r="D216" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E216" s="34" t="s">
+      <c r="E216" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F216" s="30" t="s">
+      <c r="F216" s="26" t="s">
         <v>921</v>
       </c>
-      <c r="G216" s="30">
+      <c r="G216" s="26">
         <v>131880</v>
       </c>
-      <c r="H216" s="34" t="s">
+      <c r="H216" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I216" s="35">
+      <c r="I216" s="30">
         <v>43</v>
       </c>
-      <c r="J216" s="35">
+      <c r="J216" s="30">
         <v>54</v>
       </c>
-      <c r="K216" s="35">
+      <c r="K216" s="30">
         <v>18</v>
       </c>
-      <c r="L216" s="35">
+      <c r="L216" s="30">
         <v>17</v>
       </c>
-      <c r="M216" s="35">
+      <c r="M216" s="30">
         <v>29</v>
       </c>
-      <c r="N216" s="35">
-        <v>27</v>
-      </c>
-      <c r="O216" s="35">
+      <c r="N216" s="30">
+        <v>27</v>
+      </c>
+      <c r="O216" s="30">
         <v>29</v>
       </c>
-      <c r="P216" s="35">
+      <c r="P216" s="30">
         <v>65</v>
       </c>
-      <c r="Q216" s="35">
+      <c r="Q216" s="30">
         <v>39</v>
       </c>
-      <c r="R216" s="35">
+      <c r="R216" s="30">
         <v>96</v>
       </c>
-      <c r="S216" s="35">
+      <c r="S216" s="30">
         <v>100</v>
       </c>
-      <c r="T216" s="35">
+      <c r="T216" s="30">
         <v>73</v>
       </c>
-      <c r="U216" s="35">
+      <c r="U216" s="30">
         <v>35</v>
       </c>
-      <c r="V216" s="35">
-        <v>27</v>
-      </c>
-      <c r="W216" s="35">
+      <c r="V216" s="30">
+        <v>27</v>
+      </c>
+      <c r="W216" s="30">
         <v>22</v>
       </c>
-      <c r="X216" s="35">
+      <c r="X216" s="30">
         <v>95</v>
       </c>
     </row>
-    <row r="217" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="31" t="s">
+    <row r="217" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="B217" s="31" t="s">
+      <c r="B217" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C217" s="32" t="s">
+      <c r="C217" s="27" t="s">
         <v>805</v>
       </c>
-      <c r="D217" s="33" t="s">
+      <c r="D217" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E217" s="34" t="s">
+      <c r="E217" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F217" s="30" t="s">
+      <c r="F217" s="26" t="s">
         <v>921</v>
       </c>
-      <c r="G217" s="30">
+      <c r="G217" s="26">
         <v>131881</v>
       </c>
-      <c r="H217" s="34" t="s">
+      <c r="H217" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I217" s="35">
+      <c r="I217" s="30">
         <v>43</v>
       </c>
-      <c r="J217" s="35">
+      <c r="J217" s="30">
         <v>58</v>
       </c>
-      <c r="K217" s="35">
+      <c r="K217" s="30">
         <v>17</v>
       </c>
-      <c r="L217" s="35">
+      <c r="L217" s="30">
         <v>16</v>
       </c>
-      <c r="M217" s="35">
-        <v>27</v>
-      </c>
-      <c r="N217" s="35">
+      <c r="M217" s="30">
+        <v>27</v>
+      </c>
+      <c r="N217" s="30">
         <v>24</v>
       </c>
-      <c r="O217" s="35">
-        <v>27</v>
-      </c>
-      <c r="P217" s="35">
+      <c r="O217" s="30">
+        <v>27</v>
+      </c>
+      <c r="P217" s="30">
         <v>68</v>
       </c>
-      <c r="Q217" s="35">
+      <c r="Q217" s="30">
         <v>38</v>
       </c>
-      <c r="R217" s="35">
+      <c r="R217" s="30">
         <v>85</v>
       </c>
-      <c r="S217" s="35">
+      <c r="S217" s="30">
         <v>103</v>
       </c>
-      <c r="T217" s="35">
+      <c r="T217" s="30">
         <v>73</v>
       </c>
-      <c r="U217" s="35">
+      <c r="U217" s="30">
         <v>34</v>
       </c>
-      <c r="V217" s="35">
+      <c r="V217" s="30">
         <v>25</v>
       </c>
-      <c r="W217" s="35">
+      <c r="W217" s="30">
         <v>21</v>
       </c>
-      <c r="X217" s="35">
+      <c r="X217" s="30">
         <v>96</v>
       </c>
     </row>
-    <row r="218" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="31" t="s">
+    <row r="218" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="B218" s="31" t="s">
+      <c r="B218" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C218" s="32" t="s">
+      <c r="C218" s="27" t="s">
         <v>806</v>
       </c>
-      <c r="D218" s="33" t="s">
+      <c r="D218" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E218" s="34" t="s">
+      <c r="E218" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F218" s="30" t="s">
+      <c r="F218" s="26" t="s">
         <v>921</v>
       </c>
-      <c r="G218" s="30">
+      <c r="G218" s="26">
         <v>131882</v>
       </c>
-      <c r="H218" s="34" t="s">
+      <c r="H218" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I218" s="35">
+      <c r="I218" s="30">
         <v>45</v>
       </c>
-      <c r="J218" s="35">
+      <c r="J218" s="30">
         <v>56</v>
       </c>
-      <c r="K218" s="35">
+      <c r="K218" s="30">
         <v>18</v>
       </c>
-      <c r="L218" s="35">
+      <c r="L218" s="30">
         <v>17</v>
       </c>
-      <c r="M218" s="35">
+      <c r="M218" s="30">
         <v>28</v>
       </c>
-      <c r="N218" s="35">
-        <v>26</v>
-      </c>
-      <c r="O218" s="35">
+      <c r="N218" s="30">
+        <v>26</v>
+      </c>
+      <c r="O218" s="30">
         <v>28</v>
       </c>
-      <c r="P218" s="35">
+      <c r="P218" s="30">
         <v>67</v>
       </c>
-      <c r="Q218" s="35">
+      <c r="Q218" s="30">
         <v>39</v>
       </c>
-      <c r="R218" s="35">
+      <c r="R218" s="30">
         <v>86</v>
       </c>
-      <c r="S218" s="35">
+      <c r="S218" s="30">
         <v>104</v>
       </c>
-      <c r="T218" s="35">
+      <c r="T218" s="30">
         <v>73</v>
       </c>
-      <c r="U218" s="35">
+      <c r="U218" s="30">
         <v>33</v>
       </c>
-      <c r="V218" s="35">
-        <v>26</v>
-      </c>
-      <c r="W218" s="35">
+      <c r="V218" s="30">
+        <v>26</v>
+      </c>
+      <c r="W218" s="30">
         <v>22</v>
       </c>
-      <c r="X218" s="35">
+      <c r="X218" s="30">
         <v>97</v>
       </c>
     </row>
-    <row r="219" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="31" t="s">
+    <row r="219" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="B219" s="31" t="s">
+      <c r="B219" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C219" s="32" t="s">
+      <c r="C219" s="27" t="s">
         <v>807</v>
       </c>
-      <c r="D219" s="33" t="s">
+      <c r="D219" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E219" s="34" t="s">
+      <c r="E219" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F219" s="30" t="s">
+      <c r="F219" s="26" t="s">
         <v>921</v>
       </c>
-      <c r="G219" s="30">
+      <c r="G219" s="26">
         <v>131883</v>
       </c>
-      <c r="H219" s="34" t="s">
+      <c r="H219" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I219" s="35">
+      <c r="I219" s="30">
         <v>43</v>
       </c>
-      <c r="J219" s="35">
+      <c r="J219" s="30">
         <v>54</v>
       </c>
-      <c r="K219" s="35">
+      <c r="K219" s="30">
         <v>17</v>
       </c>
-      <c r="L219" s="35">
+      <c r="L219" s="30">
         <v>16</v>
       </c>
-      <c r="M219" s="35">
-        <v>26</v>
-      </c>
-      <c r="N219" s="35">
+      <c r="M219" s="30">
+        <v>26</v>
+      </c>
+      <c r="N219" s="30">
         <v>24</v>
       </c>
-      <c r="O219" s="35">
+      <c r="O219" s="30">
         <v>28</v>
       </c>
-      <c r="P219" s="35">
+      <c r="P219" s="30">
         <v>67</v>
       </c>
-      <c r="Q219" s="35">
+      <c r="Q219" s="30">
         <v>39</v>
       </c>
-      <c r="R219" s="35">
+      <c r="R219" s="30">
         <v>81</v>
       </c>
-      <c r="S219" s="35">
+      <c r="S219" s="30">
         <v>103</v>
       </c>
-      <c r="T219" s="35">
+      <c r="T219" s="30">
         <v>73</v>
       </c>
-      <c r="U219" s="35">
+      <c r="U219" s="30">
         <v>32</v>
       </c>
-      <c r="V219" s="35">
-        <v>26</v>
-      </c>
-      <c r="W219" s="35">
+      <c r="V219" s="30">
+        <v>26</v>
+      </c>
+      <c r="W219" s="30">
         <v>21</v>
       </c>
-      <c r="X219" s="35">
+      <c r="X219" s="30">
         <v>98</v>
       </c>
     </row>
-    <row r="220" spans="1:24" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="31" t="s">
+    <row r="220" spans="1:24" s="28" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="B220" s="31" t="s">
+      <c r="B220" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C220" s="32" t="s">
+      <c r="C220" s="27" t="s">
         <v>808</v>
       </c>
-      <c r="D220" s="33" t="s">
+      <c r="D220" s="27" t="s">
         <v>946</v>
       </c>
-      <c r="E220" s="34" t="s">
+      <c r="E220" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F220" s="30" t="s">
+      <c r="F220" s="26" t="s">
         <v>921</v>
       </c>
-      <c r="G220" s="30">
+      <c r="G220" s="26">
         <v>131884</v>
       </c>
-      <c r="H220" s="34" t="s">
+      <c r="H220" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I220" s="35">
+      <c r="I220" s="30">
         <v>44</v>
       </c>
-      <c r="J220" s="35">
+      <c r="J220" s="30">
         <v>54</v>
       </c>
-      <c r="K220" s="35">
+      <c r="K220" s="30">
         <v>17</v>
       </c>
-      <c r="L220" s="35">
+      <c r="L220" s="30">
         <v>16</v>
       </c>
-      <c r="M220" s="35">
-        <v>27</v>
-      </c>
-      <c r="N220" s="35">
+      <c r="M220" s="30">
+        <v>27</v>
+      </c>
+      <c r="N220" s="30">
         <v>24</v>
       </c>
-      <c r="O220" s="35">
+      <c r="O220" s="30">
         <v>28</v>
       </c>
-      <c r="P220" s="35">
+      <c r="P220" s="30">
         <v>67</v>
       </c>
-      <c r="Q220" s="35">
+      <c r="Q220" s="30">
         <v>38</v>
       </c>
-      <c r="R220" s="35">
+      <c r="R220" s="30">
         <v>86</v>
       </c>
-      <c r="S220" s="35">
+      <c r="S220" s="30">
         <v>102</v>
       </c>
-      <c r="T220" s="35">
+      <c r="T220" s="30">
         <v>72</v>
       </c>
-      <c r="U220" s="35">
+      <c r="U220" s="30">
         <v>34</v>
       </c>
-      <c r="V220" s="35">
-        <v>26</v>
-      </c>
-      <c r="W220" s="35">
+      <c r="V220" s="30">
+        <v>26</v>
+      </c>
+      <c r="W220" s="30">
         <v>21</v>
       </c>
-      <c r="X220" s="35">
+      <c r="X220" s="30">
         <v>98</v>
       </c>
     </row>
     <row r="221" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="6" t="s">
         <v>339</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C221" s="20" t="s">
+      <c r="C221" s="9" t="s">
         <v>809</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E221" s="6" t="s">
@@ -20060,7 +20053,7 @@
       <c r="F221" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G221" s="30">
+      <c r="G221" s="26">
         <v>131885</v>
       </c>
       <c r="H221" s="6" t="s">
@@ -20116,16 +20109,16 @@
       </c>
     </row>
     <row r="222" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="6" t="s">
         <v>340</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C222" s="20" t="s">
+      <c r="C222" s="9" t="s">
         <v>810</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E222" s="6" t="s">
@@ -20134,7 +20127,7 @@
       <c r="F222" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G222" s="30">
+      <c r="G222" s="26">
         <v>131886</v>
       </c>
       <c r="H222" s="6" t="s">
@@ -20190,16 +20183,16 @@
       </c>
     </row>
     <row r="223" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="9" t="s">
+      <c r="A223" s="6" t="s">
         <v>387</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C223" s="20" t="s">
+      <c r="C223" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E223" s="6" t="s">
@@ -20208,7 +20201,7 @@
       <c r="F223" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G223" s="30">
+      <c r="G223" s="26">
         <v>131887</v>
       </c>
       <c r="H223" s="6" t="s">
@@ -20264,16 +20257,16 @@
       </c>
     </row>
     <row r="224" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="6" t="s">
         <v>388</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C224" s="20" t="s">
+      <c r="C224" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E224" s="6" t="s">
@@ -20282,7 +20275,7 @@
       <c r="F224" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G224" s="30">
+      <c r="G224" s="26">
         <v>131888</v>
       </c>
       <c r="H224" s="6" t="s">
@@ -20338,16 +20331,16 @@
       </c>
     </row>
     <row r="225" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="6" t="s">
         <v>380</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C225" s="20" t="s">
+      <c r="C225" s="9" t="s">
         <v>813</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E225" s="6" t="s">
@@ -20356,7 +20349,7 @@
       <c r="F225" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G225" s="30">
+      <c r="G225" s="26">
         <v>131889</v>
       </c>
       <c r="H225" s="6" t="s">
@@ -20412,16 +20405,16 @@
       </c>
     </row>
     <row r="226" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="6" t="s">
         <v>389</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C226" s="20" t="s">
+      <c r="C226" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E226" s="6" t="s">
@@ -20430,7 +20423,7 @@
       <c r="F226" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G226" s="30">
+      <c r="G226" s="26">
         <v>131890</v>
       </c>
       <c r="H226" s="6" t="s">
@@ -20486,16 +20479,16 @@
       </c>
     </row>
     <row r="227" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="6" t="s">
         <v>377</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="20" t="s">
+      <c r="C227" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E227" s="6" t="s">
@@ -20504,7 +20497,7 @@
       <c r="F227" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G227" s="30">
+      <c r="G227" s="26">
         <v>131891</v>
       </c>
       <c r="H227" s="6" t="s">
@@ -20560,16 +20553,16 @@
       </c>
     </row>
     <row r="228" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="6" t="s">
         <v>378</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C228" s="20" t="s">
+      <c r="C228" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="9" t="s">
         <v>946</v>
       </c>
       <c r="E228" s="6" t="s">
@@ -20578,7 +20571,7 @@
       <c r="F228" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G228" s="30">
+      <c r="G228" s="26">
         <v>131892</v>
       </c>
       <c r="H228" s="6" t="s">
@@ -20634,16 +20627,16 @@
       </c>
     </row>
     <row r="229" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="6" t="s">
         <v>569</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="C229" s="21" t="s">
+      <c r="C229" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E229" s="6" t="s">
@@ -20708,16 +20701,16 @@
       </c>
     </row>
     <row r="230" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="6" t="s">
         <v>574</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C230" s="21" t="s">
+      <c r="C230" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E230" s="6" t="s">
@@ -20782,16 +20775,16 @@
       </c>
     </row>
     <row r="231" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="6" t="s">
         <v>570</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="C231" s="21" t="s">
+      <c r="C231" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E231" s="6" t="s">
@@ -20856,16 +20849,16 @@
       </c>
     </row>
     <row r="232" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="6" t="s">
         <v>587</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C232" s="21" t="s">
+      <c r="C232" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E232" s="6" t="s">
@@ -20930,16 +20923,16 @@
       </c>
     </row>
     <row r="233" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="6" t="s">
         <v>511</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C233" s="21" t="s">
+      <c r="C233" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E233" s="6" t="s">
@@ -21004,16 +20997,16 @@
       </c>
     </row>
     <row r="234" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="6" t="s">
         <v>578</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E234" s="6" t="s">
@@ -21078,16 +21071,16 @@
       </c>
     </row>
     <row r="235" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="6" t="s">
         <v>579</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="C235" s="21" t="s">
+      <c r="C235" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E235" s="6" t="s">
@@ -21152,16 +21145,16 @@
       </c>
     </row>
     <row r="236" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="9" t="s">
+      <c r="A236" s="6" t="s">
         <v>586</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C236" s="21" t="s">
+      <c r="C236" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E236" s="6" t="s">
@@ -21226,16 +21219,16 @@
       </c>
     </row>
     <row r="237" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="6" t="s">
         <v>576</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C237" s="21" t="s">
+      <c r="C237" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E237" s="6" t="s">
@@ -21300,16 +21293,16 @@
       </c>
     </row>
     <row r="238" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="6" t="s">
         <v>571</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C238" s="21" t="s">
+      <c r="C238" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E238" s="6" t="s">
@@ -21375,16 +21368,16 @@
       <c r="Y238" s="4"/>
     </row>
     <row r="239" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="6" t="s">
         <v>582</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C239" s="21" t="s">
+      <c r="C239" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E239" s="6" t="s">
@@ -21449,16 +21442,16 @@
       </c>
     </row>
     <row r="240" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="6" t="s">
         <v>580</v>
       </c>
       <c r="B240" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="C240" s="21" t="s">
+      <c r="C240" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E240" s="6" t="s">
@@ -21523,16 +21516,16 @@
       </c>
     </row>
     <row r="241" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="6" t="s">
         <v>568</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="C241" s="21" t="s">
+      <c r="C241" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E241" s="6" t="s">
@@ -21597,16 +21590,16 @@
       </c>
     </row>
     <row r="242" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="6" t="s">
         <v>479</v>
       </c>
       <c r="B242" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="C242" s="21" t="s">
+      <c r="C242" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E242" s="6" t="s">
@@ -21671,16 +21664,16 @@
       </c>
     </row>
     <row r="243" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="6" t="s">
         <v>563</v>
       </c>
       <c r="B243" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="C243" s="21" t="s">
+      <c r="C243" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E243" s="6" t="s">
@@ -21745,16 +21738,16 @@
       </c>
     </row>
     <row r="244" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="6" t="s">
         <v>564</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C244" s="21" t="s">
+      <c r="C244" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E244" s="6" t="s">
@@ -21819,16 +21812,16 @@
       </c>
     </row>
     <row r="245" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="6" t="s">
         <v>565</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C245" s="21" t="s">
+      <c r="C245" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E245" s="6" t="s">
@@ -21893,16 +21886,16 @@
       </c>
     </row>
     <row r="246" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="6" t="s">
         <v>566</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="C246" s="21" t="s">
+      <c r="C246" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E246" s="6" t="s">
@@ -21967,16 +21960,16 @@
       </c>
     </row>
     <row r="247" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="6" t="s">
         <v>567</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C247" s="21" t="s">
+      <c r="C247" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E247" s="6" t="s">
@@ -22041,16 +22034,16 @@
       </c>
     </row>
     <row r="248" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="6" t="s">
         <v>585</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="C248" s="21" t="s">
+      <c r="C248" s="9" t="s">
         <v>828</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" s="9" t="s">
         <v>947</v>
       </c>
       <c r="E248" s="6" t="s">
@@ -22115,16 +22108,16 @@
       </c>
     </row>
     <row r="249" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="6" t="s">
         <v>589</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="C249" s="20" t="s">
+      <c r="C249" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E249" s="6" t="s">
@@ -22189,16 +22182,16 @@
       </c>
     </row>
     <row r="250" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="6" t="s">
         <v>608</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="C250" s="20" t="s">
+      <c r="C250" s="9" t="s">
         <v>830</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E250" s="6" t="s">
@@ -22263,16 +22256,16 @@
       </c>
     </row>
     <row r="251" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="6" t="s">
         <v>595</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="C251" s="20" t="s">
+      <c r="C251" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E251" s="6" t="s">
@@ -22337,16 +22330,16 @@
       </c>
     </row>
     <row r="252" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="9" t="s">
+      <c r="A252" s="6" t="s">
         <v>591</v>
       </c>
       <c r="B252" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C252" s="20" t="s">
+      <c r="C252" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E252" s="6" t="s">
@@ -22411,16 +22404,16 @@
       </c>
     </row>
     <row r="253" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="6" t="s">
         <v>590</v>
       </c>
       <c r="B253" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C253" s="20" t="s">
+      <c r="C253" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E253" s="6" t="s">
@@ -22485,16 +22478,16 @@
       </c>
     </row>
     <row r="254" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="9" t="s">
+      <c r="A254" s="6" t="s">
         <v>435</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="C254" s="20" t="s">
+      <c r="C254" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E254" s="6" t="s">
@@ -22559,16 +22552,16 @@
       </c>
     </row>
     <row r="255" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="9" t="s">
+      <c r="A255" s="6" t="s">
         <v>601</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="C255" s="20" t="s">
+      <c r="C255" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E255" s="6" t="s">
@@ -22633,16 +22626,16 @@
       </c>
     </row>
     <row r="256" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="6" t="s">
         <v>611</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C256" s="20" t="s">
+      <c r="C256" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E256" s="6" t="s">
@@ -22707,16 +22700,16 @@
       </c>
     </row>
     <row r="257" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="6" t="s">
         <v>615</v>
       </c>
       <c r="B257" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="C257" s="20" t="s">
+      <c r="C257" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E257" s="6" t="s">
@@ -22781,16 +22774,16 @@
       </c>
     </row>
     <row r="258" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="9" t="s">
+      <c r="A258" s="6" t="s">
         <v>597</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="C258" s="20" t="s">
+      <c r="C258" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E258" s="6" t="s">
@@ -22855,16 +22848,16 @@
       </c>
     </row>
     <row r="259" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="6" t="s">
         <v>613</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C259" s="20" t="s">
+      <c r="C259" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E259" s="6" t="s">
@@ -22929,16 +22922,16 @@
       </c>
     </row>
     <row r="260" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="9" t="s">
+      <c r="A260" s="6" t="s">
         <v>619</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="C260" s="20" t="s">
+      <c r="C260" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E260" s="6" t="s">
@@ -23003,16 +22996,16 @@
       </c>
     </row>
     <row r="261" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="6" t="s">
         <v>603</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="C261" s="20" t="s">
+      <c r="C261" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E261" s="6" t="s">
@@ -23077,16 +23070,16 @@
       </c>
     </row>
     <row r="262" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="9" t="s">
+      <c r="A262" s="6" t="s">
         <v>599</v>
       </c>
       <c r="B262" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="C262" s="20" t="s">
+      <c r="C262" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D262" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E262" s="6" t="s">
@@ -23151,16 +23144,16 @@
       </c>
     </row>
     <row r="263" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="6" t="s">
         <v>609</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="C263" s="20" t="s">
+      <c r="C263" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E263" s="6" t="s">
@@ -23225,16 +23218,16 @@
       </c>
     </row>
     <row r="264" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="9" t="s">
+      <c r="A264" s="6" t="s">
         <v>621</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="C264" s="20" t="s">
+      <c r="C264" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E264" s="6" t="s">
@@ -23299,16 +23292,16 @@
       </c>
     </row>
     <row r="265" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="6" t="s">
         <v>445</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C265" s="20" t="s">
+      <c r="C265" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E265" s="6" t="s">
@@ -23373,16 +23366,16 @@
       </c>
     </row>
     <row r="266" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="6" t="s">
         <v>593</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="C266" s="20" t="s">
+      <c r="C266" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E266" s="6" t="s">
@@ -23447,16 +23440,16 @@
       </c>
     </row>
     <row r="267" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="9" t="s">
+      <c r="A267" s="6" t="s">
         <v>426</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="C267" s="20" t="s">
+      <c r="C267" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E267" s="6" t="s">
@@ -23521,16 +23514,16 @@
       </c>
     </row>
     <row r="268" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="9" t="s">
+      <c r="A268" s="6" t="s">
         <v>605</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="C268" s="20" t="s">
+      <c r="C268" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" s="9" t="s">
         <v>948</v>
       </c>
       <c r="E268" s="6" t="s">
@@ -23595,16 +23588,16 @@
       </c>
     </row>
     <row r="269" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="6" t="s">
         <v>534</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C269" s="20" t="s">
+      <c r="C269" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E269" s="6" t="s">
@@ -23669,16 +23662,16 @@
       </c>
     </row>
     <row r="270" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="6" t="s">
         <v>539</v>
       </c>
       <c r="B270" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C270" s="20" t="s">
+      <c r="C270" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E270" s="6" t="s">
@@ -23743,16 +23736,16 @@
       </c>
     </row>
     <row r="271" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="9" t="s">
+      <c r="A271" s="6" t="s">
         <v>542</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C271" s="20" t="s">
+      <c r="C271" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E271" s="6" t="s">
@@ -23817,16 +23810,16 @@
       </c>
     </row>
     <row r="272" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="9" t="s">
+      <c r="A272" s="6" t="s">
         <v>535</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C272" s="20" t="s">
+      <c r="C272" s="9" t="s">
         <v>842</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E272" s="6" t="s">
@@ -23891,16 +23884,16 @@
       </c>
     </row>
     <row r="273" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="9" t="s">
+      <c r="A273" s="6" t="s">
         <v>541</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C273" s="20" t="s">
+      <c r="C273" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E273" s="6" t="s">
@@ -23965,16 +23958,16 @@
       </c>
     </row>
     <row r="274" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="9" t="s">
+      <c r="A274" s="6" t="s">
         <v>536</v>
       </c>
       <c r="B274" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C274" s="20" t="s">
+      <c r="C274" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E274" s="6" t="s">
@@ -24039,16 +24032,16 @@
       </c>
     </row>
     <row r="275" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="9" t="s">
+      <c r="A275" s="6" t="s">
         <v>529</v>
       </c>
       <c r="B275" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C275" s="20" t="s">
+      <c r="C275" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E275" s="6" t="s">
@@ -24113,16 +24106,16 @@
       </c>
     </row>
     <row r="276" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="6" t="s">
         <v>530</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C276" s="20" t="s">
+      <c r="C276" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E276" s="6" t="s">
@@ -24187,16 +24180,16 @@
       </c>
     </row>
     <row r="277" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="6" t="s">
         <v>545</v>
       </c>
       <c r="B277" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C277" s="20" t="s">
+      <c r="C277" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E277" s="6" t="s">
@@ -24261,16 +24254,16 @@
       </c>
     </row>
     <row r="278" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="9" t="s">
+      <c r="A278" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B278" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C278" s="20" t="s">
+      <c r="C278" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="D278" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E278" s="6" t="s">
@@ -24335,16 +24328,16 @@
       </c>
     </row>
     <row r="279" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="6" t="s">
         <v>532</v>
       </c>
       <c r="B279" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C279" s="20" t="s">
+      <c r="C279" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E279" s="6" t="s">
@@ -24409,16 +24402,16 @@
       </c>
     </row>
     <row r="280" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="9" t="s">
+      <c r="A280" s="6" t="s">
         <v>528</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C280" s="20" t="s">
+      <c r="C280" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E280" s="6" t="s">
@@ -24483,16 +24476,16 @@
       </c>
     </row>
     <row r="281" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="6" t="s">
         <v>540</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C281" s="20" t="s">
+      <c r="C281" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E281" s="6" t="s">
@@ -24557,16 +24550,16 @@
       </c>
     </row>
     <row r="282" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="9" t="s">
+      <c r="A282" s="6" t="s">
         <v>537</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C282" s="20" t="s">
+      <c r="C282" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E282" s="6" t="s">
@@ -24631,16 +24624,16 @@
       </c>
     </row>
     <row r="283" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="6" t="s">
         <v>544</v>
       </c>
       <c r="B283" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C283" s="20" t="s">
+      <c r="C283" s="9" t="s">
         <v>844</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E283" s="6" t="s">
@@ -24705,16 +24698,16 @@
       </c>
     </row>
     <row r="284" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="9" t="s">
+      <c r="A284" s="6" t="s">
         <v>543</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C284" s="20" t="s">
+      <c r="C284" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E284" s="6" t="s">
@@ -24779,16 +24772,16 @@
       </c>
     </row>
     <row r="285" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="6" t="s">
         <v>533</v>
       </c>
       <c r="B285" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C285" s="20" t="s">
+      <c r="C285" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E285" s="6" t="s">
@@ -24853,16 +24846,16 @@
       </c>
     </row>
     <row r="286" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="9" t="s">
+      <c r="A286" s="6" t="s">
         <v>531</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C286" s="20" t="s">
+      <c r="C286" s="9" t="s">
         <v>846</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" s="9" t="s">
         <v>949</v>
       </c>
       <c r="E286" s="6" t="s">
@@ -24927,16 +24920,16 @@
       </c>
     </row>
     <row r="287" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="6" t="s">
         <v>561</v>
       </c>
       <c r="B287" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C287" s="20" t="s">
+      <c r="C287" s="9" t="s">
         <v>847</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D287" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E287" s="6" t="s">
@@ -25001,16 +24994,16 @@
       </c>
     </row>
     <row r="288" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="9" t="s">
+      <c r="A288" s="6" t="s">
         <v>562</v>
       </c>
       <c r="B288" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C288" s="20" t="s">
+      <c r="C288" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E288" s="6" t="s">
@@ -25075,16 +25068,16 @@
       </c>
     </row>
     <row r="289" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="9" t="s">
+      <c r="A289" s="6" t="s">
         <v>554</v>
       </c>
       <c r="B289" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="C289" s="20" t="s">
+      <c r="C289" s="9" t="s">
         <v>848</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E289" s="6" t="s">
@@ -25149,14 +25142,14 @@
       </c>
     </row>
     <row r="290" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="9" t="s">
+      <c r="A290" s="6" t="s">
         <v>856</v>
       </c>
       <c r="B290" s="9"/>
-      <c r="C290" s="20" t="s">
+      <c r="C290" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E290" s="6" t="s">
@@ -25189,16 +25182,16 @@
       <c r="X290" s="1"/>
     </row>
     <row r="291" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="9" t="s">
+      <c r="A291" s="6" t="s">
         <v>553</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C291" s="20" t="s">
+      <c r="C291" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E291" s="6" t="s">
@@ -25263,16 +25256,16 @@
       </c>
     </row>
     <row r="292" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="6" t="s">
         <v>552</v>
       </c>
       <c r="B292" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C292" s="20" t="s">
+      <c r="C292" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D292" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E292" s="6" t="s">
@@ -25337,16 +25330,16 @@
       </c>
     </row>
     <row r="293" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="6" t="s">
         <v>560</v>
       </c>
       <c r="B293" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C293" s="20" t="s">
+      <c r="C293" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D293" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E293" s="6" t="s">
@@ -25411,16 +25404,16 @@
       </c>
     </row>
     <row r="294" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="6" t="s">
         <v>546</v>
       </c>
       <c r="B294" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C294" s="20" t="s">
+      <c r="C294" s="9" t="s">
         <v>851</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D294" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E294" s="6" t="s">
@@ -25485,16 +25478,16 @@
       </c>
     </row>
     <row r="295" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="19" t="s">
+      <c r="A295" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="B295" s="19" t="s">
+      <c r="B295" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="C295" s="20" t="s">
+      <c r="C295" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D295" s="17" t="s">
         <v>950</v>
       </c>
       <c r="E295" s="6" t="s">
@@ -25559,16 +25552,16 @@
       </c>
     </row>
     <row r="296" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="9" t="s">
+      <c r="A296" s="6" t="s">
         <v>555</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="C296" s="20" t="s">
+      <c r="C296" s="9" t="s">
         <v>853</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="D296" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E296" s="6" t="s">
@@ -25633,16 +25626,16 @@
       </c>
     </row>
     <row r="297" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="9" t="s">
+      <c r="A297" s="6" t="s">
         <v>556</v>
       </c>
       <c r="B297" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="C297" s="20" t="s">
+      <c r="C297" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="D297" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E297" s="6" t="s">
@@ -25707,16 +25700,16 @@
       </c>
     </row>
     <row r="298" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="9" t="s">
+      <c r="A298" s="6" t="s">
         <v>548</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="C298" s="20" t="s">
+      <c r="C298" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="D298" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E298" s="6" t="s">
@@ -25781,16 +25774,16 @@
       </c>
     </row>
     <row r="299" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="6" t="s">
         <v>549</v>
       </c>
       <c r="B299" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="C299" s="20" t="s">
+      <c r="C299" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="D299" s="2" t="s">
+      <c r="D299" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E299" s="6" t="s">
@@ -25855,16 +25848,16 @@
       </c>
     </row>
     <row r="300" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="9" t="s">
+      <c r="A300" s="6" t="s">
         <v>480</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="C300" s="20" t="s">
+      <c r="C300" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="D300" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E300" s="6" t="s">
@@ -25929,16 +25922,16 @@
       </c>
     </row>
     <row r="301" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="6" t="s">
         <v>550</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="C301" s="20" t="s">
+      <c r="C301" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D301" s="2" t="s">
+      <c r="D301" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E301" s="6" t="s">
@@ -26003,16 +25996,16 @@
       </c>
     </row>
     <row r="302" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="9" t="s">
+      <c r="A302" s="6" t="s">
         <v>551</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="C302" s="20" t="s">
+      <c r="C302" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D302" s="2" t="s">
+      <c r="D302" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E302" s="6" t="s">
@@ -26077,16 +26070,16 @@
       </c>
     </row>
     <row r="303" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="9" t="s">
+      <c r="A303" s="6" t="s">
         <v>547</v>
       </c>
       <c r="B303" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C303" s="20" t="s">
+      <c r="C303" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="D303" s="2" t="s">
+      <c r="D303" s="9" t="s">
         <v>950</v>
       </c>
       <c r="E303" s="6" t="s">
@@ -26151,7 +26144,7 @@
       </c>
     </row>
     <row r="304" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="4"/>
+      <c r="A304" s="1"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -26163,7 +26156,7 @@
       <c r="J304" s="5"/>
     </row>
     <row r="305" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="4"/>
+      <c r="A305" s="1"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -26175,7 +26168,7 @@
       <c r="J305" s="5"/>
     </row>
     <row r="306" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
+      <c r="A306" s="1"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -26187,7 +26180,7 @@
       <c r="J306" s="5"/>
     </row>
     <row r="307" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="4"/>
+      <c r="A307" s="1"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -26199,7 +26192,7 @@
       <c r="J307" s="5"/>
     </row>
     <row r="308" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="4"/>
+      <c r="A308" s="1"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -26211,7 +26204,7 @@
       <c r="J308" s="5"/>
     </row>
     <row r="309" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
+      <c r="A309" s="1"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -26223,7 +26216,7 @@
       <c r="J309" s="5"/>
     </row>
     <row r="310" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="4"/>
+      <c r="A310" s="1"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -26235,7 +26228,7 @@
       <c r="J310" s="5"/>
     </row>
     <row r="311" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="4"/>
+      <c r="A311" s="1"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -26247,7 +26240,7 @@
       <c r="J311" s="5"/>
     </row>
     <row r="312" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="4"/>
+      <c r="A312" s="1"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -26259,7 +26252,7 @@
       <c r="J312" s="5"/>
     </row>
     <row r="313" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="4"/>
+      <c r="A313" s="1"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -26271,7 +26264,7 @@
       <c r="J313" s="5"/>
     </row>
     <row r="314" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="4"/>
+      <c r="A314" s="1"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -26283,7 +26276,7 @@
       <c r="J314" s="5"/>
     </row>
     <row r="315" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="4"/>
+      <c r="A315" s="1"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -26295,7 +26288,7 @@
       <c r="J315" s="5"/>
     </row>
     <row r="316" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="4"/>
+      <c r="A316" s="1"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -26307,7 +26300,7 @@
       <c r="J316" s="5"/>
     </row>
     <row r="317" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="4"/>
+      <c r="A317" s="1"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -26319,7 +26312,7 @@
       <c r="J317" s="5"/>
     </row>
     <row r="318" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="4"/>
+      <c r="A318" s="1"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -26331,7 +26324,7 @@
       <c r="J318" s="5"/>
     </row>
     <row r="319" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="4"/>
+      <c r="A319" s="1"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -26343,7 +26336,7 @@
       <c r="J319" s="5"/>
     </row>
     <row r="320" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="4"/>
+      <c r="A320" s="1"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -26355,7 +26348,7 @@
       <c r="J320" s="5"/>
     </row>
     <row r="321" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="4"/>
+      <c r="A321" s="1"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -26367,7 +26360,7 @@
       <c r="J321" s="5"/>
     </row>
     <row r="322" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="4"/>
+      <c r="A322" s="1"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -26379,7 +26372,7 @@
       <c r="J322" s="5"/>
     </row>
     <row r="323" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="4"/>
+      <c r="A323" s="1"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -26391,7 +26384,7 @@
       <c r="J323" s="5"/>
     </row>
     <row r="324" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="4"/>
+      <c r="A324" s="1"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -26403,7 +26396,7 @@
       <c r="J324" s="5"/>
     </row>
     <row r="325" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="4"/>
+      <c r="A325" s="1"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -26415,7 +26408,7 @@
       <c r="J325" s="5"/>
     </row>
     <row r="326" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="4"/>
+      <c r="A326" s="1"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -26427,7 +26420,7 @@
       <c r="J326" s="5"/>
     </row>
     <row r="327" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="4"/>
+      <c r="A327" s="1"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -26439,7 +26432,7 @@
       <c r="J327" s="5"/>
     </row>
     <row r="328" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="4"/>
+      <c r="A328" s="1"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -26451,7 +26444,7 @@
       <c r="J328" s="5"/>
     </row>
     <row r="329" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="4"/>
+      <c r="A329" s="1"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -26463,7 +26456,7 @@
       <c r="J329" s="5"/>
     </row>
     <row r="330" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="4"/>
+      <c r="A330" s="1"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -26475,7 +26468,7 @@
       <c r="J330" s="5"/>
     </row>
     <row r="331" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="4"/>
+      <c r="A331" s="1"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -26487,7 +26480,7 @@
       <c r="J331" s="5"/>
     </row>
     <row r="332" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="4"/>
+      <c r="A332" s="1"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -26499,7 +26492,7 @@
       <c r="J332" s="5"/>
     </row>
     <row r="333" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="4"/>
+      <c r="A333" s="1"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -26511,7 +26504,7 @@
       <c r="J333" s="5"/>
     </row>
     <row r="334" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="4"/>
+      <c r="A334" s="1"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -26523,7 +26516,7 @@
       <c r="J334" s="5"/>
     </row>
     <row r="335" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="4"/>
+      <c r="A335" s="1"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -26535,7 +26528,7 @@
       <c r="J335" s="5"/>
     </row>
     <row r="336" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="4"/>
+      <c r="A336" s="1"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -26547,7 +26540,7 @@
       <c r="J336" s="5"/>
     </row>
     <row r="337" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="4"/>
+      <c r="A337" s="1"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -26559,7 +26552,7 @@
       <c r="J337" s="5"/>
     </row>
     <row r="338" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="4"/>
+      <c r="A338" s="1"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -26571,7 +26564,7 @@
       <c r="J338" s="5"/>
     </row>
     <row r="339" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="4"/>
+      <c r="A339" s="1"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -26583,7 +26576,7 @@
       <c r="J339" s="5"/>
     </row>
     <row r="340" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="4"/>
+      <c r="A340" s="1"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -26595,7 +26588,7 @@
       <c r="J340" s="5"/>
     </row>
     <row r="341" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="4"/>
+      <c r="A341" s="1"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -26607,7 +26600,7 @@
       <c r="J341" s="5"/>
     </row>
     <row r="342" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="4"/>
+      <c r="A342" s="1"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -26619,7 +26612,7 @@
       <c r="J342" s="5"/>
     </row>
     <row r="343" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="4"/>
+      <c r="A343" s="1"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -26631,7 +26624,7 @@
       <c r="J343" s="5"/>
     </row>
     <row r="344" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="4"/>
+      <c r="A344" s="1"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -26643,7 +26636,7 @@
       <c r="J344" s="5"/>
     </row>
     <row r="345" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="4"/>
+      <c r="A345" s="1"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -26655,7 +26648,7 @@
       <c r="J345" s="5"/>
     </row>
     <row r="346" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="4"/>
+      <c r="A346" s="1"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -26667,7 +26660,7 @@
       <c r="J346" s="5"/>
     </row>
     <row r="347" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="4"/>
+      <c r="A347" s="1"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -26679,7 +26672,7 @@
       <c r="J347" s="5"/>
     </row>
     <row r="348" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="4"/>
+      <c r="A348" s="1"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -26691,7 +26684,7 @@
       <c r="J348" s="5"/>
     </row>
     <row r="349" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="4"/>
+      <c r="A349" s="1"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -26703,7 +26696,7 @@
       <c r="J349" s="5"/>
     </row>
     <row r="350" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="4"/>
+      <c r="A350" s="1"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -26715,7 +26708,7 @@
       <c r="J350" s="5"/>
     </row>
     <row r="351" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="4"/>
+      <c r="A351" s="1"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -26727,7 +26720,7 @@
       <c r="J351" s="5"/>
     </row>
     <row r="352" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="4"/>
+      <c r="A352" s="1"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -26739,7 +26732,7 @@
       <c r="J352" s="5"/>
     </row>
     <row r="353" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="4"/>
+      <c r="A353" s="1"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -26751,7 +26744,7 @@
       <c r="J353" s="5"/>
     </row>
     <row r="354" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="4"/>
+      <c r="A354" s="1"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -26763,7 +26756,7 @@
       <c r="J354" s="5"/>
     </row>
     <row r="355" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="4"/>
+      <c r="A355" s="1"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -26775,7 +26768,7 @@
       <c r="J355" s="5"/>
     </row>
     <row r="356" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="4"/>
+      <c r="A356" s="1"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -26787,7 +26780,7 @@
       <c r="J356" s="5"/>
     </row>
     <row r="357" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="4"/>
+      <c r="A357" s="1"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -26799,7 +26792,7 @@
       <c r="J357" s="5"/>
     </row>
     <row r="358" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="4"/>
+      <c r="A358" s="1"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -26811,7 +26804,7 @@
       <c r="J358" s="5"/>
     </row>
     <row r="359" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="4"/>
+      <c r="A359" s="1"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -26823,7 +26816,7 @@
       <c r="J359" s="5"/>
     </row>
     <row r="360" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="4"/>
+      <c r="A360" s="1"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -26835,7 +26828,7 @@
       <c r="J360" s="5"/>
     </row>
     <row r="361" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="4"/>
+      <c r="A361" s="1"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -26847,7 +26840,7 @@
       <c r="J361" s="5"/>
     </row>
     <row r="362" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="4"/>
+      <c r="A362" s="1"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -26859,7 +26852,7 @@
       <c r="J362" s="5"/>
     </row>
     <row r="363" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="4"/>
+      <c r="A363" s="1"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -26871,7 +26864,7 @@
       <c r="J363" s="5"/>
     </row>
     <row r="364" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="4"/>
+      <c r="A364" s="1"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -26883,7 +26876,7 @@
       <c r="J364" s="5"/>
     </row>
     <row r="365" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="4"/>
+      <c r="A365" s="1"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -26895,7 +26888,7 @@
       <c r="J365" s="5"/>
     </row>
     <row r="366" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="4"/>
+      <c r="A366" s="1"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -26907,7 +26900,7 @@
       <c r="J366" s="5"/>
     </row>
     <row r="367" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="4"/>
+      <c r="A367" s="1"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -26919,7 +26912,7 @@
       <c r="J367" s="5"/>
     </row>
     <row r="368" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="4"/>
+      <c r="A368" s="1"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -26931,7 +26924,7 @@
       <c r="J368" s="5"/>
     </row>
     <row r="369" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="4"/>
+      <c r="A369" s="1"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -26943,7 +26936,7 @@
       <c r="J369" s="5"/>
     </row>
     <row r="370" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="4"/>
+      <c r="A370" s="1"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -26955,7 +26948,7 @@
       <c r="J370" s="5"/>
     </row>
     <row r="371" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="4"/>
+      <c r="A371" s="1"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -26967,7 +26960,7 @@
       <c r="J371" s="5"/>
     </row>
     <row r="372" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="4"/>
+      <c r="A372" s="1"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -26979,7 +26972,7 @@
       <c r="J372" s="5"/>
     </row>
     <row r="373" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="4"/>
+      <c r="A373" s="1"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -26991,7 +26984,7 @@
       <c r="J373" s="5"/>
     </row>
     <row r="374" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="4"/>
+      <c r="A374" s="1"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -27003,7 +26996,6 @@
       <c r="J374" s="5"/>
     </row>
     <row r="375" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
@@ -27015,7 +27007,6 @@
       <c r="J375" s="5"/>
     </row>
     <row r="376" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
@@ -27027,7 +27018,6 @@
       <c r="J376" s="5"/>
     </row>
     <row r="377" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
@@ -27039,7 +27029,6 @@
       <c r="J377" s="5"/>
     </row>
     <row r="378" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
@@ -27051,7 +27040,6 @@
       <c r="J378" s="5"/>
     </row>
     <row r="379" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
@@ -27063,7 +27051,6 @@
       <c r="J379" s="5"/>
     </row>
     <row r="380" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
@@ -27075,7 +27062,6 @@
       <c r="J380" s="5"/>
     </row>
     <row r="381" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
@@ -27087,7 +27073,6 @@
       <c r="J381" s="5"/>
     </row>
     <row r="382" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
@@ -27099,7 +27084,6 @@
       <c r="J382" s="5"/>
     </row>
     <row r="383" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
@@ -27111,7 +27095,6 @@
       <c r="J383" s="5"/>
     </row>
     <row r="384" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
@@ -27122,8 +27105,7 @@
       <c r="I384" s="5"/>
       <c r="J384" s="5"/>
     </row>
-    <row r="385" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="5"/>
+    <row r="385" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
@@ -27134,8 +27116,7 @@
       <c r="I385" s="5"/>
       <c r="J385" s="5"/>
     </row>
-    <row r="386" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="5"/>
+    <row r="386" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
@@ -27146,8 +27127,7 @@
       <c r="I386" s="5"/>
       <c r="J386" s="5"/>
     </row>
-    <row r="387" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="5"/>
+    <row r="387" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
@@ -27158,8 +27138,7 @@
       <c r="I387" s="5"/>
       <c r="J387" s="5"/>
     </row>
-    <row r="388" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="5"/>
+    <row r="388" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
@@ -27170,8 +27149,7 @@
       <c r="I388" s="5"/>
       <c r="J388" s="5"/>
     </row>
-    <row r="389" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="5"/>
+    <row r="389" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
@@ -27182,8 +27160,7 @@
       <c r="I389" s="5"/>
       <c r="J389" s="5"/>
     </row>
-    <row r="390" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="5"/>
+    <row r="390" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
@@ -27194,8 +27171,7 @@
       <c r="I390" s="5"/>
       <c r="J390" s="5"/>
     </row>
-    <row r="391" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="5"/>
+    <row r="391" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
@@ -27206,8 +27182,7 @@
       <c r="I391" s="5"/>
       <c r="J391" s="5"/>
     </row>
-    <row r="392" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="5"/>
+    <row r="392" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
@@ -27218,8 +27193,7 @@
       <c r="I392" s="5"/>
       <c r="J392" s="5"/>
     </row>
-    <row r="393" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="5"/>
+    <row r="393" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
@@ -27230,8 +27204,7 @@
       <c r="I393" s="5"/>
       <c r="J393" s="5"/>
     </row>
-    <row r="394" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="5"/>
+    <row r="394" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
@@ -27242,8 +27215,7 @@
       <c r="I394" s="5"/>
       <c r="J394" s="5"/>
     </row>
-    <row r="395" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="5"/>
+    <row r="395" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
@@ -27254,8 +27226,7 @@
       <c r="I395" s="5"/>
       <c r="J395" s="5"/>
     </row>
-    <row r="396" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="5"/>
+    <row r="396" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
@@ -27266,8 +27237,7 @@
       <c r="I396" s="5"/>
       <c r="J396" s="5"/>
     </row>
-    <row r="397" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="5"/>
+    <row r="397" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
@@ -27278,8 +27248,7 @@
       <c r="I397" s="5"/>
       <c r="J397" s="5"/>
     </row>
-    <row r="398" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="5"/>
+    <row r="398" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
@@ -27290,8 +27259,7 @@
       <c r="I398" s="5"/>
       <c r="J398" s="5"/>
     </row>
-    <row r="399" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="5"/>
+    <row r="399" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
@@ -27302,8 +27270,7 @@
       <c r="I399" s="5"/>
       <c r="J399" s="5"/>
     </row>
-    <row r="400" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="5"/>
+    <row r="400" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
@@ -27314,8 +27281,7 @@
       <c r="I400" s="5"/>
       <c r="J400" s="5"/>
     </row>
-    <row r="401" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="5"/>
+    <row r="401" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
@@ -27326,8 +27292,7 @@
       <c r="I401" s="5"/>
       <c r="J401" s="5"/>
     </row>
-    <row r="402" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="5"/>
+    <row r="402" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
@@ -27338,8 +27303,7 @@
       <c r="I402" s="5"/>
       <c r="J402" s="5"/>
     </row>
-    <row r="403" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="5"/>
+    <row r="403" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
@@ -27350,8 +27314,7 @@
       <c r="I403" s="5"/>
       <c r="J403" s="5"/>
     </row>
-    <row r="404" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="5"/>
+    <row r="404" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
@@ -27362,8 +27325,7 @@
       <c r="I404" s="5"/>
       <c r="J404" s="5"/>
     </row>
-    <row r="405" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="5"/>
+    <row r="405" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
@@ -27374,8 +27336,7 @@
       <c r="I405" s="5"/>
       <c r="J405" s="5"/>
     </row>
-    <row r="406" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A406" s="5"/>
+    <row r="406" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
@@ -27386,8 +27347,7 @@
       <c r="I406" s="5"/>
       <c r="J406" s="5"/>
     </row>
-    <row r="407" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="5"/>
+    <row r="407" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
@@ -27398,8 +27358,7 @@
       <c r="I407" s="5"/>
       <c r="J407" s="5"/>
     </row>
-    <row r="408" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A408" s="5"/>
+    <row r="408" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
@@ -27410,8 +27369,7 @@
       <c r="I408" s="5"/>
       <c r="J408" s="5"/>
     </row>
-    <row r="409" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A409" s="5"/>
+    <row r="409" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
@@ -27424,7 +27382,7 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.59055118110236227" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
@@ -27473,7 +27431,7 @@
       <c r="B2" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="15">
         <v>26</v>
       </c>
       <c r="D2" t="s">
@@ -27497,7 +27455,7 @@
       <c r="B3" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>26</v>
       </c>
       <c r="D3" t="s">
@@ -27521,7 +27479,7 @@
       <c r="B4" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>27</v>
       </c>
       <c r="D4" t="s">
@@ -27542,7 +27500,7 @@
       <c r="B5" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>26</v>
       </c>
       <c r="D5" t="s">
@@ -27559,7 +27517,7 @@
       <c r="B6" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>27</v>
       </c>
       <c r="D6" t="s">
@@ -27576,7 +27534,7 @@
       <c r="B7" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -27593,7 +27551,7 @@
       <c r="B8" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>23</v>
       </c>
       <c r="D8" t="s">
@@ -27610,7 +27568,7 @@
       <c r="B9" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>23</v>
       </c>
       <c r="D9" t="s">
@@ -27627,7 +27585,7 @@
       <c r="B10" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>22</v>
       </c>
       <c r="D10" t="s">
@@ -27644,7 +27602,7 @@
       <c r="B11" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>20</v>
       </c>
       <c r="D11" t="s">
@@ -27661,7 +27619,7 @@
       <c r="B12" t="s">
         <v>268</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>20</v>
       </c>
       <c r="D12" t="s">
@@ -27678,7 +27636,7 @@
       <c r="B13" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>18</v>
       </c>
       <c r="D13" t="s">
@@ -27695,7 +27653,7 @@
       <c r="B14" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>17</v>
       </c>
       <c r="D14" t="s">
@@ -27706,40 +27664,40 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <f>SUM(C2:C14)</f>
         <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:3" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>857</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="21" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+      <c r="A20" s="20">
         <v>1</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="24" t="s">
         <v>265</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -27764,16 +27722,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>916</v>
       </c>
     </row>

--- a/21. SENAVBAH 2021/UKURAN.xlsx
+++ b/21. SENAVBAH 2021/UKURAN.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\21. SENAVBAH 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FAA65A-C234-464B-A4AF-F0A245143BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BBC5F-47BB-4274-85B0-7B661818B57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKURAN" sheetId="4" r:id="rId1"/>
     <sheet name="REKAP" sheetId="3" r:id="rId2"/>
-    <sheet name="PESAN NAMA" sheetId="6" r:id="rId3"/>
+    <sheet name="rincian pembayran" sheetId="7" r:id="rId3"/>
+    <sheet name="PESAN NAMA" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PESAN NAMA'!$A$2:$C$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PESAN NAMA'!$A$2:$C$301</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UKURAN!$A$1:$Y$303</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'PESAN NAMA'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'PESAN NAMA'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">UKURAN!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="974">
   <si>
     <t>NO</t>
   </si>
@@ -2954,15 +2955,28 @@
   <si>
     <t>JMLH</t>
   </si>
+  <si>
+    <t>TGL</t>
+  </si>
+  <si>
+    <t>TAGIHAN</t>
+  </si>
+  <si>
+    <t>27 JULI 2021</t>
+  </si>
+  <si>
+    <t>SISA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="##\ &quot;Orang&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3030,6 +3044,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3079,10 +3098,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3202,8 +3222,10 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -27856,8 +27878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF1245-4C24-4273-98A1-236AD8AF9A5A}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:E15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28170,6 +28192,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D2AE7-9D7E-421F-8B97-FF391AD03B90}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C2" s="41">
+        <v>5000000</v>
+      </c>
+      <c r="E2">
+        <v>302</v>
+      </c>
+      <c r="F2" s="41">
+        <v>800000</v>
+      </c>
+      <c r="G2" s="41">
+        <f>F2*E2</f>
+        <v>241600000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="41">
+        <f>SUM(C2:C9)</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>973</v>
+      </c>
+      <c r="C11" s="41">
+        <f>G2-C10</f>
+        <v>236600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2159FF51-1136-4137-AA13-36E974A1C2C0}">
   <dimension ref="A1:D451"/>
   <sheetViews>

--- a/21. SENAVBAH 2021/UKURAN.xlsx
+++ b/21. SENAVBAH 2021/UKURAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\21. SENAVBAH 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0BBC5F-47BB-4274-85B0-7B661818B57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B2A47C-61E1-4DEB-8E07-89E248C8A6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="975">
   <si>
     <t>NO</t>
   </si>
@@ -2966,6 +2966,9 @@
   </si>
   <si>
     <t>SISA</t>
+  </si>
+  <si>
+    <t>09 AGUSTUS 21</t>
   </si>
 </sst>
 </file>
@@ -28196,7 +28199,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28241,13 +28244,21 @@
         <v>241600000</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C3" s="41">
+        <v>5000000</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>262</v>
       </c>
       <c r="C10" s="41">
         <f>SUM(C2:C9)</f>
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -28256,7 +28267,7 @@
       </c>
       <c r="C11" s="41">
         <f>G2-C10</f>
-        <v>236600000</v>
+        <v>231600000</v>
       </c>
     </row>
   </sheetData>

--- a/21. SENAVBAH 2021/UKURAN.xlsx
+++ b/21. SENAVBAH 2021/UKURAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\21. SENAVBAH 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F675ADC-A021-4FAD-A516-C8D1BAB98F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFAF26D-C039-45ED-BEDC-0AF4488AE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKURAN" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="976">
   <si>
     <t>NO</t>
   </si>
@@ -3056,12 +3056,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -3108,7 +3114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3229,6 +3235,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -3798,16 +3810,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0382373A-DC6D-4D49-AD09-279AF00AB81E}">
   <dimension ref="A1:Y409"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C290" sqref="C290"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V296" sqref="V296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -25218,26 +25230,28 @@
       </c>
     </row>
     <row r="290" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
+      <c r="A290" s="42" t="s">
         <v>856</v>
       </c>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9" t="s">
+      <c r="B290" s="43" t="s">
         <v>849</v>
       </c>
-      <c r="D290" s="9" t="s">
+      <c r="C290" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="D290" s="43" t="s">
         <v>950</v>
       </c>
-      <c r="E290" s="6" t="s">
+      <c r="E290" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F290" s="6" t="s">
+      <c r="F290" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="G290" s="6">
+      <c r="G290" s="42">
         <v>132023</v>
       </c>
-      <c r="H290" s="6" t="s">
+      <c r="H290" s="42" t="s">
         <v>6</v>
       </c>
       <c r="I290" s="1"/>
@@ -27787,7 +27801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D2AE7-9D7E-421F-8B97-FF391AD03B90}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/21. SENAVBAH 2021/UKURAN.xlsx
+++ b/21. SENAVBAH 2021/UKURAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\21. SENAVBAH 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFAF26D-C039-45ED-BEDC-0AF4488AE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBA5CB4-80F2-4FFA-A9B3-F3151D1D60DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3114,7 +3114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3240,6 +3240,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3812,7 +3815,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V296" sqref="V296"/>
+      <selection pane="bottomLeft" activeCell="K291" sqref="K291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3825,7 +3828,9 @@
     <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="24" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="11.5703125" style="2"/>
   </cols>
@@ -25254,22 +25259,54 @@
       <c r="H290" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="I290" s="1"/>
-      <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
-      <c r="L290" s="1"/>
-      <c r="M290" s="1"/>
-      <c r="N290" s="1"/>
-      <c r="O290" s="1"/>
-      <c r="P290" s="1"/>
-      <c r="Q290" s="1"/>
-      <c r="R290" s="1"/>
-      <c r="S290" s="1"/>
-      <c r="T290" s="1"/>
-      <c r="U290" s="1"/>
-      <c r="V290" s="1"/>
-      <c r="W290" s="1"/>
-      <c r="X290" s="1"/>
+      <c r="I290" s="1">
+        <v>46</v>
+      </c>
+      <c r="J290" s="1">
+        <v>58</v>
+      </c>
+      <c r="K290" s="2">
+        <v>17</v>
+      </c>
+      <c r="L290" s="1">
+        <v>16</v>
+      </c>
+      <c r="M290" s="44">
+        <v>27</v>
+      </c>
+      <c r="N290" s="1">
+        <v>24</v>
+      </c>
+      <c r="O290" s="1">
+        <v>27</v>
+      </c>
+      <c r="P290" s="1">
+        <v>69</v>
+      </c>
+      <c r="Q290" s="1">
+        <v>39</v>
+      </c>
+      <c r="R290" s="1">
+        <v>75</v>
+      </c>
+      <c r="S290" s="1">
+        <v>100</v>
+      </c>
+      <c r="T290" s="1">
+        <v>67</v>
+      </c>
+      <c r="U290" s="1">
+        <v>31</v>
+      </c>
+      <c r="V290" s="1">
+        <v>24</v>
+      </c>
+      <c r="W290" s="1">
+        <v>21</v>
+      </c>
+      <c r="X290" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="291" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">

--- a/21. SENAVBAH 2021/UKURAN.xlsx
+++ b/21. SENAVBAH 2021/UKURAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\21. SENAVBAH 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBA5CB4-80F2-4FFA-A9B3-F3151D1D60DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB937F2-D23B-41E4-8021-9D655CD8DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UKURAN" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="978">
   <si>
     <t>NO</t>
   </si>
@@ -2972,6 +2972,12 @@
   </si>
   <si>
     <t>KIRIM 105 STELL DIKMABA-1</t>
+  </si>
+  <si>
+    <t>28 AGUSTUS 2021</t>
+  </si>
+  <si>
+    <t>KIRIM 197 STELL DIKMABA-2 DAN DIKMATA</t>
   </si>
 </sst>
 </file>
@@ -3056,18 +3062,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -3114,7 +3114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3235,14 +3235,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3813,9 +3816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0382373A-DC6D-4D49-AD09-279AF00AB81E}">
   <dimension ref="A1:Y409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K291" sqref="K291"/>
+      <selection pane="bottomLeft" activeCell="H290" sqref="A290:H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25235,28 +25238,28 @@
       </c>
     </row>
     <row r="290" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="42" t="s">
+      <c r="A290" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="B290" s="43" t="s">
+      <c r="B290" s="25" t="s">
         <v>849</v>
       </c>
-      <c r="C290" s="43" t="s">
+      <c r="C290" s="25" t="s">
         <v>849</v>
       </c>
-      <c r="D290" s="43" t="s">
+      <c r="D290" s="25" t="s">
         <v>950</v>
       </c>
-      <c r="E290" s="42" t="s">
+      <c r="E290" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F290" s="42" t="s">
+      <c r="F290" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="G290" s="42">
+      <c r="G290" s="27">
         <v>132023</v>
       </c>
-      <c r="H290" s="42" t="s">
+      <c r="H290" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I290" s="1">
@@ -25271,7 +25274,7 @@
       <c r="L290" s="1">
         <v>16</v>
       </c>
-      <c r="M290" s="44">
+      <c r="M290" s="42">
         <v>27</v>
       </c>
       <c r="N290" s="1">
@@ -27838,8 +27841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D2AE7-9D7E-421F-8B97-FF391AD03B90}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27896,6 +27899,16 @@
       <c r="C3" s="41">
         <v>5000000</v>
       </c>
+      <c r="E3">
+        <v>302</v>
+      </c>
+      <c r="F3" s="41">
+        <v>25000</v>
+      </c>
+      <c r="G3" s="41">
+        <f>F3*E3</f>
+        <v>7550000</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -27907,6 +27920,24 @@
       <c r="D4" t="s">
         <v>975</v>
       </c>
+      <c r="G4" s="41">
+        <f>G2-G3</f>
+        <v>234050000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="43">
+        <v>4</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>976</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
+        <v>977</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -27922,8 +27953,8 @@
         <v>972</v>
       </c>
       <c r="C11" s="41">
-        <f>G2-C10</f>
-        <v>231600000</v>
+        <f>G4-C10</f>
+        <v>224050000</v>
       </c>
     </row>
   </sheetData>

--- a/21. SENAVBAH 2021/UKURAN.xlsx
+++ b/21. SENAVBAH 2021/UKURAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\21. SENAVBAH 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB937F2-D23B-41E4-8021-9D655CD8DCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FA9187-555C-42C8-84EE-152C950C6E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="980">
   <si>
     <t>NO</t>
   </si>
@@ -2978,6 +2978,12 @@
   </si>
   <si>
     <t>KIRIM 197 STELL DIKMABA-2 DAN DIKMATA</t>
+  </si>
+  <si>
+    <t>25 SEPTEMBER</t>
+  </si>
+  <si>
+    <t>18 SEPTEMBER</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3247,6 +3253,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -27524,8 +27532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECF1245-4C24-4273-98A1-236AD8AF9A5A}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27839,10 +27847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791D2AE7-9D7E-421F-8B97-FF391AD03B90}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27939,26 +27947,57 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>979</v>
+      </c>
+      <c r="C6" s="41">
+        <f>(800000*105)-C2-C3</f>
+        <v>74000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>978</v>
+      </c>
+      <c r="C7" s="41">
+        <f>75*800000</f>
+        <v>60000000</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>262</v>
       </c>
       <c r="C10" s="41">
         <f>SUM(C2:C9)</f>
-        <v>10000000</v>
+        <v>144000000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>972</v>
       </c>
-      <c r="C11" s="41">
-        <f>G4-C10</f>
-        <v>224050000</v>
+      <c r="C11" s="47">
+        <f>G2-C10</f>
+        <v>97600000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="41">
+        <f>C11/800000</f>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
